--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidney\Documents\GitHub\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123395CA-8DA6-42DB-97ED-AC4D88B10448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -166,9 +163,6 @@
     <t>use \fi.zero cupon bond</t>
   </si>
   <si>
-    <t>use \fi.ucurve.bootstrap</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -183,20 +177,41 @@
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
   </si>
+  <si>
+    <t>Times / Cash flows:</t>
+  </si>
+  <si>
+    <t>u (maturity)</t>
+  </si>
+  <si>
+    <t>c (payment)</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Times / Cash flows</t>
+  </si>
+  <si>
+    <t>c (coupon)</t>
+  </si>
+  <si>
+    <t>f (frequency)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,21 +219,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="63"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,6 +243,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,20 +293,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,9 +312,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Handle" xfId="3" xr:uid="{FB5D0E3F-B7C2-471A-97B4-EF18ADDF021D}"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,8 +397,1798 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$J$6:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7323037168694624E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7294240837115154E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.721079054557859E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6778519999290514E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.632691013270551E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6059207069266165E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5867990595380914E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5724578239966977E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5613035296867254E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5523800942387468E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4760767774771613E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4379251190963682E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4567027196897734E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4692211200853765E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5286394901676073E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5732032677292802E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6078639836105812E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.635592556315622E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.703878714772197E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7607838468193426E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8089343431669268E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8502061971791415E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9069157753752602E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9565366562968628E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0003197865218068E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0392381244995348E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0740597953217127E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1053992990616725E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1713169260319559E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2312420414594855E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2859562772846214E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3361109934576626E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3822533323368607E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4248462605330441E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4642841570109906E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5009050608833708E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5350003851783442E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5668226878536534E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5965919387434585E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6245006114526511E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6507178494521954E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6753928969811787E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6986579417942195E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7206304841176466E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7414153214506191E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7611062199765922E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7797873288345678E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7975343822496436E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8004086588156983E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.803146065069084E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8057561501013812E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.808247594904938E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.810628308828338E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8129055134507194E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8150858157487438E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8171752721176846E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8191794445531996E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8211034500912929E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8229520044318144E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8247294605284693E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8264398428101575E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8280868775999297E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.829674020215529E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8312044791662852E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8326812378029799E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8341070737280653E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8354845762319604E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8368161619857256E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07AF-4C94-ABA2-A3D19D42D547}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$K$6:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.814664017116199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6683596176462913E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7404183748547974E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3234701439539896E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3234701439539896E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.531813122063393E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.531813122063393E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8851497106609914E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8851497106609914E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8851497106609914E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8851497106609914E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.386740299337942E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.386740299337942E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.386740299337942E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.386740299337942E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7008498701209114E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4896694654376146E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9153797214578902E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07AF-4C94-ABA2-A3D19D42D547}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1435378591"/>
+        <c:axId val="1435376671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1435378591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435376671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1435376671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435378591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F9C3F6-9CD1-4D1D-8845-4794D51BDE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -701,14 +2510,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +2555,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +2603,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +2650,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +2697,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +2744,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +2791,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +2838,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +2885,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +2932,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +2979,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +3026,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +3073,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +3120,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +3167,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +3214,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +3261,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +3308,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +3355,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +3402,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +3449,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +3496,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +3543,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +3590,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +3637,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +3684,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +3731,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +3778,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +3825,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +3872,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +3919,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +3966,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +4013,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +4060,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2299,6 +4108,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A540E354-8D5C-4BE3-BEEC-45C6D363E13F}"/>
   </hyperlinks>
@@ -2308,43 +4118,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>_xll.\FI.INSTRUMENT(B3:B5, C3:C5)</f>
+        <v>2257018644176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:E9">_xll.FI.INSTRUMENT(C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B13,C13)</f>
+        <v>2257016136000</v>
+      </c>
+      <c r="E13">
+        <f>_xll.FI.INSTRUMENT(D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B14,C14)</f>
+        <v>2257023988160</v>
+      </c>
+      <c r="E14">
+        <f>_xll.FI.INSTRUMENT(D14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B15,C15)</f>
+        <v>2257023982832</v>
+      </c>
+      <c r="E15">
+        <f>_xll.FI.INSTRUMENT(D15)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>_xll.\FI.INSTRUMENT.BOND(B17,C17,D17)</f>
+        <v>2258492791824</v>
+      </c>
+      <c r="F17">
+        <f>_xll.FI.INSTRUMENT(E17)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f>_xll.\FI.INSTRUMENT.BOND(B18,C18,D18)</f>
+        <v>2258492791504</v>
+      </c>
+      <c r="F18">
+        <f>_xll.FI.INSTRUMENT(E18)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.06</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>_xll.\FI.INSTRUMENT.BOND(B19,C19,D19)</f>
+        <v>2258492791344</v>
+      </c>
+      <c r="F19">
+        <f>_xll.FI.INSTRUMENT(E19)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f>_xll.\FI.INSTRUMENT.BOND(B20,C20,D20)</f>
+        <v>2258492791184</v>
+      </c>
+      <c r="F20">
+        <f>_xll.FI.INSTRUMENT(E20)</f>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">_xll.\FI.CURVE.PWFLAT(B3:B6,C3:C6)</f>
+        <v>2259012291248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:E9">_xll.FI.CURVE.PWFLAT(B7)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.04</v>
+      </c>
+      <c r="E9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>_xll.FI.CURVE.PWFLAT(B7)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2353,18 +4456,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="8" width="12.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -2373,15 +4481,16 @@
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(G3:G16, E3:E16)</f>
+        <v>2004912543088</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2389,14 +4498,18 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E3">
-        <f>1-D3*C3/360</f>
-        <v>0.99999141203703701</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <f>1-D3*C3</f>
+        <v>0.99690833333333329</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3, 1)</f>
+        <v>2004637718992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2408,21 +4521,25 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
-        <v>0.99998701388888889</v>
+        <f t="shared" ref="E4:E9" si="0">1-D4*C4</f>
+        <v>0.99532500000000002</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4, 1)</f>
+        <v>2005036506144</v>
+      </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>2/12</f>
         <v>0.16666666666666666</v>
       </c>
@@ -2431,22 +4548,26 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99998273148148153</v>
+        <v>0.99378333333333335</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5, 1)</f>
+        <v>2005036508304</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2459,10 +4580,14 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99997430555555555</v>
+        <v>0.99075000000000002</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6, 1)</f>
+        <v>2004366409088</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,12 +4596,20 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($H$2, I6)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($H$2, I6)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>4/12</f>
         <v>0.33333333333333331</v>
       </c>
@@ -2485,19 +4618,31 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99996574074074074</v>
+        <v>0.98766666666666669</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7, 1)</f>
+        <v>2005036503264</v>
+      </c>
       <c r="H7">
         <v>0.5</v>
       </c>
       <c r="I7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($H$2, I7)</f>
+        <v>3.7323037168694624E-2</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($H$2, I7)</f>
+        <v>3.814664017116199E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2510,16 +4655,28 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8, 1)</f>
+        <v>2004366408080</v>
+      </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($H$2, I8)</f>
+        <v>3.7294240837115154E-2</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($H$2, I8)</f>
+        <v>3.6683596176462913E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2531,19 +4688,31 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99990305555555559</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9, 1)</f>
+        <v>2004366410096</v>
+      </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($H$2, I9)</f>
+        <v>3.721079054557859E-2</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($H$2, I9)</f>
+        <v>3.7404183748547974E-2</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +4725,26 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xll.\FI.INSTRUMENT.BOND(C10, D10, 2)</f>
+        <v>2004634307712</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($H$2, I10)</f>
+        <v>3.6778519999290514E-2</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($H$2, I10)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2579,11 +4760,23 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xll.\FI.INSTRUMENT.BOND(C11, D11, 2)</f>
+        <v>2004634302432</v>
+      </c>
       <c r="I11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($H$2, I11)</f>
+        <v>3.632691013270551E-2</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($H$2, I11)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2599,11 +4792,23 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xll.\FI.INSTRUMENT.BOND(C12, D12, 2)</f>
+        <v>2004634307072</v>
+      </c>
       <c r="I12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($H$2, I12)</f>
+        <v>3.6059207069266165E-2</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($H$2, I12)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2619,11 +4824,23 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xll.\FI.INSTRUMENT.BOND(C13, D13, 2)</f>
+        <v>2004634306592</v>
+      </c>
       <c r="I13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($H$2, I13)</f>
+        <v>3.5867990595380914E-2</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($H$2, I13)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2639,11 +4856,23 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">_xll.\FI.INSTRUMENT.BOND(C14, D14, 2)</f>
+        <v>2004634306112</v>
+      </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($H$2, I14)</f>
+        <v>3.5724578239966977E-2</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($H$2, I14)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2659,11 +4888,23 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">_xll.\FI.INSTRUMENT.BOND(C15, D15, 2)</f>
+        <v>2004634303072</v>
+      </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($H$2, I15)</f>
+        <v>3.5613035296867254E-2</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($H$2, I15)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2679,305 +4920,783 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">_xll.\FI.INSTRUMENT.BOND(C16, D16, 2)</f>
+        <v>2004634302912</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($H$2, I16)</f>
+        <v>3.5523800942387468E-2</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($H$2, I16)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($H$2, I17)</f>
+        <v>3.4760767774771613E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($H$2, I17)</f>
+        <v>3.3234701439539896E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($H$2, I18)</f>
+        <v>3.4379251190963682E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($H$2, I18)</f>
+        <v>3.3234701439539896E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($H$2, I19)</f>
+        <v>3.4567027196897734E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($H$2, I19)</f>
+        <v>3.531813122063393E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($H$2, I20)</f>
+        <v>3.4692211200853765E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($H$2, I20)</f>
+        <v>3.531813122063393E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($H$2, I21)</f>
+        <v>3.5286394901676073E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($H$2, I21)</f>
+        <v>3.8851497106609914E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($H$2, I22)</f>
+        <v>3.5732032677292802E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($H$2, I22)</f>
+        <v>3.8851497106609914E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($H$2, I23)</f>
+        <v>3.6078639836105812E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($H$2, I23)</f>
+        <v>3.8851497106609914E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($H$2, I24)</f>
+        <v>3.635592556315622E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($H$2, I24)</f>
+        <v>3.8851497106609914E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($H$2, I25)</f>
+        <v>3.703878714772197E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($H$2, I25)</f>
+        <v>4.386740299337942E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($H$2, I26)</f>
+        <v>3.7607838468193426E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($H$2, I26)</f>
+        <v>4.386740299337942E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($H$2, I27)</f>
+        <v>3.8089343431669268E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($H$2, I27)</f>
+        <v>4.386740299337942E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($H$2, I28)</f>
+        <v>3.8502061971791415E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($H$2, I28)</f>
+        <v>4.386740299337942E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($H$2, I29)</f>
+        <v>3.9069157753752602E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($H$2, I29)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($H$2, I30)</f>
+        <v>3.9565366562968628E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($H$2, I30)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($H$2, I31)</f>
+        <v>4.0003197865218068E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($H$2, I31)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($H$2, I32)</f>
+        <v>4.0392381244995348E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($H$2, I32)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($H$2, I33)</f>
+        <v>4.0740597953217127E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($H$2, I33)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($H$2, I34)</f>
+        <v>4.1053992990616725E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($H$2, I34)</f>
+        <v>4.7008498701209114E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($H$2, I35)</f>
+        <v>4.1713169260319559E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($H$2, I35)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($H$2, I36)</f>
+        <v>4.2312420414594855E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($H$2, I36)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($H$2, I37)</f>
+        <v>4.2859562772846214E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($H$2, I37)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($H$2, I38)</f>
+        <v>4.3361109934576626E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($H$2, I38)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($H$2, I39)</f>
+        <v>4.3822533323368607E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($H$2, I39)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($H$2, I40)</f>
+        <v>4.4248462605330441E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($H$2, I40)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($H$2, I41)</f>
+        <v>4.4642841570109906E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($H$2, I41)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($H$2, I42)</f>
+        <v>4.5009050608833708E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($H$2, I42)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($H$2, I43)</f>
+        <v>4.5350003851783442E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($H$2, I43)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($H$2, I44)</f>
+        <v>4.5668226878536534E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($H$2, I44)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($H$2, I45)</f>
+        <v>4.5965919387434585E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($H$2, I45)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($H$2, I46)</f>
+        <v>4.6245006114526511E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($H$2, I46)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($H$2, I47)</f>
+        <v>4.6507178494521954E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($H$2, I47)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($H$2, I48)</f>
+        <v>4.6753928969811787E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($H$2, I48)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($H$2, I49)</f>
+        <v>4.6986579417942195E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($H$2, I49)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($H$2, I50)</f>
+        <v>4.7206304841176466E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($H$2, I50)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($H$2, I51)</f>
+        <v>4.7414153214506191E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($H$2, I51)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($H$2, I52)</f>
+        <v>4.7611062199765922E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($H$2, I52)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($H$2, I53)</f>
+        <v>4.7797873288345678E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($H$2, I53)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($H$2, I54)</f>
+        <v>4.7975343822496436E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($H$2, I54)</f>
+        <v>5.4896694654376146E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($H$2, I55)</f>
+        <v>4.8004086588156983E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($H$2, I55)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($H$2, I56)</f>
+        <v>4.803146065069084E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($H$2, I56)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($H$2, I57)</f>
+        <v>4.8057561501013812E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($H$2, I57)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($H$2, I58)</f>
+        <v>4.808247594904938E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($H$2, I58)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($H$2, I59)</f>
+        <v>4.810628308828338E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($H$2, I59)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($H$2, I60)</f>
+        <v>4.8129055134507194E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($H$2, I60)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($H$2, I61)</f>
+        <v>4.8150858157487438E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($H$2, I61)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($H$2, I62)</f>
+        <v>4.8171752721176846E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($H$2, I62)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($H$2, I63)</f>
+        <v>4.8191794445531996E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($H$2, I63)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($H$2, I64)</f>
+        <v>4.8211034500912929E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($H$2, I64)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($H$2, I65)</f>
+        <v>4.8229520044318144E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($H$2, I65)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($H$2, I66)</f>
+        <v>4.8247294605284693E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($H$2, I66)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($H$2, I67)</f>
+        <v>4.8264398428101575E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($H$2, I67)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($H$2, I68)</f>
+        <v>4.8280868775999297E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($H$2, I68)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($H$2, I69)</f>
+        <v>4.829674020215529E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($H$2, I69)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($H$2, I70)</f>
+        <v>4.8312044791662852E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($H$2, I70)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($H$2, I71)</f>
+        <v>4.8326812378029799E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($H$2, I71)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($H$2, I72)</f>
+        <v>4.8341070737280653E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($H$2, I72)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($H$2, I73)</f>
+        <v>4.8354845762319604E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($H$2, I73)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>30</v>
       </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($H$2, I74)</f>
+        <v>4.8368161619857256E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($H$2, I74)</f>
+        <v>4.9153797214578902E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7445D5B-7933-41B5-8E2C-0C8691F74EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Bootstrap" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +34,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,12 +87,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
-  </si>
-  <si>
-    <t>Add examples for \FI.INSTURMENT, FI.INSTRUMENT, FI.INTRUMENT.ZERO_COUPON_BOND, and FI.INSTRUMENT.BOND</t>
   </si>
   <si>
     <t>Add examples for \FI.CURVE.PWFLAT and FI.CURVE.PWFLAT</t>
@@ -151,19 +146,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
   </si>
   <si>
     <t>use \fi.ucurve.bootstrap</t>
@@ -181,22 +167,52 @@
     <t>insert graph</t>
   </si>
   <si>
+    <t>Add examples for \FI.INSTURMENT, FI.INSTRUMENT, FI.INTRUMENT.ZERO_COUPON_BOND, and FI.INSTRUMENT.BOND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\FI.INSTRUMENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI.INSTRUMENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO_COUPON_BOND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\PWFLAT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWFLAT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>plot curve here using pwflate.spot, forward</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,21 +220,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="63"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,6 +244,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,11 +294,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,12 +307,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Handle" xfId="3" xr:uid="{FB5D0E3F-B7C2-471A-97B4-EF18ADDF021D}"/>
@@ -376,6 +401,1801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$J$6:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.035142317659301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0319536825936958E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0277943042752876E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0138994732094902E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000018246136307E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8982943136249161E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8256343618310661E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7711393979856768E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7287544261059322E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6948464486021349E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3372855440415508E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5010808928380252E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5074658708311578E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.511722522826579E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5655466868940493E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.605914809944652E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6373122389840098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.662430182215496E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7286927375230421E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.783911533612664E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8306351303038826E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8706839274677836E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9262948462946826E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9749544002682186E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0178893008331031E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0560536568907783E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0902007123108042E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1209330621888265E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.186315643180373E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2457543531726878E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3000244796874101E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3497720956592399E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3955399023533223E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4377871085324753E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4769048920316912E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5132285481381061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5470471245130442E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5786111291296526E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6081387463516421E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6358208874972565E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6618253231188941E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6863000860569062E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7093762911127462E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7311704847765951E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7517866139180735E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7713176836310538E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7898471600254192E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.807450162600066E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8101032464489109E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8126299929716204E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8150392164002506E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8173389296730339E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8195364334670268E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8216383936178026E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8236509086557793E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8255795689005072E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.82742950831892E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8292054501605959E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8309117472241668E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8325524174776008E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.834131175645999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8356514612896417E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8371164638189704E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8385291448293948E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.839892258085067E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8412083674353713E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8424798629093942E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8437089752009485E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E700-4971-86F8-550DC4D4696F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$K$6:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0539167217309795E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.011128615701034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0278224795759079E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E700-4971-86F8-550DC4D4696F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="682798095"/>
+        <c:axId val="682814895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="682798095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682814895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="682814895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682798095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338136</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>719136</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8194D6B-D2AC-0743-B0AD-72D4ED2A9EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,23 +2515,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
+02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
 02/17/2026,3.72,3.75,3.73,3.69,3.70,3.59,3.48,3.43,3.47,3.63,3.82,4.05,4.63,4.68
 02/13/2026,3.72,3.71,3.73,3.68,3.70,3.59,3.42,3.40,3.43,3.61,3.81,4.04,4.64,4.69
@@ -746,9 +2571,9 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P40">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -794,65 +2619,65 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B7" t="str">
-        <v>02/18/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C7" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G7" t="str">
         <v>3.71</v>
       </c>
-      <c r="D7" t="str">
-        <v>3.74</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3.73</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="G7" t="str">
-        <v>3.70</v>
-      </c>
       <c r="H7" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="I7" t="str">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="J7" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="str">
         <v>3.50</v>
       </c>
       <c r="L7" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N7" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O7" t="str">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="P7" t="str">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B8" t="str">
-        <v>02/17/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="E8" t="str">
         <v>3.75</v>
-      </c>
-      <c r="E8" t="str">
-        <v>3.73</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
@@ -861,133 +2686,133 @@
         <v>3.70</v>
       </c>
       <c r="H8" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I8" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J8" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="K8" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="L8" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="str">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="N8" t="str">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="O8" t="str">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="P8" t="str">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B9" t="str">
-        <v>02/13/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D9" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E9" t="str">
         <v>3.73</v>
       </c>
       <c r="F9" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="G9" t="str">
         <v>3.70</v>
       </c>
       <c r="H9" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I9" t="str">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="J9" t="str">
-        <v>3.40</v>
+        <v>3.47</v>
       </c>
       <c r="K9" t="str">
-        <v>3.43</v>
+        <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="M9" t="str">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="N9" t="str">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="O9" t="str">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="P9" t="str">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B10" t="str">
-        <v>02/12/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C10" t="str">
         <v>3.72</v>
       </c>
       <c r="D10" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="E10" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F10" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I10" t="str">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="J10" t="str">
+        <v>3.43</v>
+      </c>
+      <c r="K10" t="str">
         <v>3.47</v>
       </c>
-      <c r="K10" t="str">
-        <v>3.49</v>
-      </c>
       <c r="L10" t="str">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="M10" t="str">
-        <v>3.87</v>
+        <v>3.82</v>
       </c>
       <c r="N10" t="str">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="O10" t="str">
+        <v>4.63</v>
+      </c>
+      <c r="P10" t="str">
         <v>4.68</v>
       </c>
-      <c r="P10" t="str">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B11" t="str">
-        <v>02/11/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C11" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D11" t="str">
         <v>3.71</v>
@@ -996,136 +2821,136 @@
         <v>3.73</v>
       </c>
       <c r="F11" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="G11" t="str">
         <v>3.70</v>
       </c>
       <c r="H11" t="str">
-        <v>3.60</v>
+        <v>3.59</v>
       </c>
       <c r="I11" t="str">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="J11" t="str">
-        <v>3.52</v>
+        <v>3.40</v>
       </c>
       <c r="K11" t="str">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="L11" t="str">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M11" t="str">
-        <v>3.96</v>
+        <v>3.81</v>
       </c>
       <c r="N11" t="str">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="O11" t="str">
-        <v>4.76</v>
+        <v>4.64</v>
       </c>
       <c r="P11" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B12" t="str">
-        <v>02/10/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
       </c>
       <c r="D12" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E12" t="str">
         <v>3.74</v>
       </c>
       <c r="F12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H12" t="str">
         <v>3.58</v>
       </c>
       <c r="I12" t="str">
-        <v>3.40</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="str">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="K12" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="L12" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="str">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="N12" t="str">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
       <c r="O12" t="str">
-        <v>4.73</v>
+        <v>4.68</v>
       </c>
       <c r="P12" t="str">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B13" t="str">
-        <v>02/09/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E13" t="str">
         <v>3.73</v>
       </c>
       <c r="F13" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G13" t="str">
         <v>3.70</v>
       </c>
       <c r="H13" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I13" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="J13" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="K13" t="str">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="str">
         <v>3.75</v>
       </c>
       <c r="M13" t="str">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="N13" t="str">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="O13" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P13" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B14" t="str">
-        <v>02/06/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C14" t="str">
         <v>3.72</v>
@@ -1137,78 +2962,78 @@
         <v>3.74</v>
       </c>
       <c r="F14" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G14" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I14" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J14" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L14" t="str">
         <v>3.70</v>
       </c>
-      <c r="H14" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I14" t="str">
-        <v>3.45</v>
-      </c>
-      <c r="J14" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="K14" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L14" t="str">
-        <v>3.76</v>
-      </c>
       <c r="M14" t="str">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="N14" t="str">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="O14" t="str">
-        <v>4.80</v>
+        <v>4.73</v>
       </c>
       <c r="P14" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B15" t="str">
-        <v>02/05/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C15" t="str">
         <v>3.72</v>
       </c>
       <c r="D15" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E15" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F15" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G15" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H15" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I15" t="str">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="J15" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K15" t="str">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L15" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="str">
         <v>3.97</v>
       </c>
       <c r="N15" t="str">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="O15" t="str">
         <v>4.79</v>
@@ -1217,9 +3042,9 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B16" t="str">
-        <v>02/04/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -1231,89 +3056,89 @@
         <v>3.74</v>
       </c>
       <c r="F16" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G16" t="str">
         <v>3.70</v>
       </c>
       <c r="H16" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I16" t="str">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="K16" t="str">
         <v>3.57</v>
       </c>
-      <c r="K16" t="str">
-        <v>3.64</v>
-      </c>
       <c r="L16" t="str">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="M16" t="str">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="N16" t="str">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="O16" t="str">
-        <v>4.86</v>
+        <v>4.80</v>
       </c>
       <c r="P16" t="str">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B17" t="str">
-        <v>02/03/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
       </c>
       <c r="D17" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E17" t="str">
         <v>3.74</v>
       </c>
       <c r="F17" t="str">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="G17" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="H17" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="I17" t="str">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="J17" t="str">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="K17" t="str">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="str">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="M17" t="str">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="N17" t="str">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="O17" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P17" t="str">
         <v>4.85</v>
       </c>
-      <c r="P17" t="str">
-        <v>4.90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B18" t="str">
-        <v>02/02/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
@@ -1352,174 +3177,174 @@
         <v>4.29</v>
       </c>
       <c r="O18" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="P18" t="str">
-        <v>4.90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B19" t="str">
-        <v>01/30/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
       </c>
       <c r="D19" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E19" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F19" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G19" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H19" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I19" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J19" t="str">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="K19" t="str">
-        <v>3.60</v>
+        <v>3.64</v>
       </c>
       <c r="L19" t="str">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="str">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="N19" t="str">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O19" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="P19" t="str">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B20" t="str">
-        <v>01/29/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
       </c>
       <c r="D20" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E20" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F20" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H20" t="str">
         <v>3.62</v>
       </c>
       <c r="I20" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J20" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K20" t="str">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="L20" t="str">
-        <v>3.80</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="str">
+        <v>4.05</v>
+      </c>
+      <c r="N20" t="str">
+        <v>4.29</v>
+      </c>
+      <c r="O20" t="str">
+        <v>4.85</v>
+      </c>
+      <c r="P20" t="str">
+        <v>4.90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B21" t="str">
+        <v>01/30/2026</v>
+      </c>
+      <c r="C21" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D21" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E21" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G21" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H21" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I21" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J21" t="str">
+        <v>3.52</v>
+      </c>
+      <c r="K21" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="L21" t="str">
+        <v>3.79</v>
+      </c>
+      <c r="M21" t="str">
         <v>4.01</v>
-      </c>
-      <c r="N20" t="str">
-        <v>4.24</v>
-      </c>
-      <c r="O20" t="str">
-        <v>4.80</v>
-      </c>
-      <c r="P20" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="str">
-        <v>01/28/2026</v>
-      </c>
-      <c r="C21" t="str">
-        <v>3.76</v>
-      </c>
-      <c r="D21" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="E21" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="F21" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="G21" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="H21" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="I21" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J21" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K21" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="L21" t="str">
-        <v>3.83</v>
-      </c>
-      <c r="M21" t="str">
-        <v>4.05</v>
       </c>
       <c r="N21" t="str">
         <v>4.26</v>
       </c>
       <c r="O21" t="str">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="P21" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B22" t="str">
-        <v>01/27/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C22" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D22" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E22" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="F22" t="str">
         <v>3.67</v>
       </c>
       <c r="G22" t="str">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="H22" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I22" t="str">
         <v>3.50</v>
@@ -1528,45 +3353,45 @@
         <v>3.53</v>
       </c>
       <c r="K22" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="L22" t="str">
-        <v>3.81</v>
+        <v>3.80</v>
       </c>
       <c r="M22" t="str">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="N22" t="str">
         <v>4.24</v>
       </c>
       <c r="O22" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P22" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B23" t="str">
-        <v>01/26/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D23" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E23" t="str">
         <v>3.71</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G23" t="str">
         <v>3.70</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G23" t="str">
-        <v>3.67</v>
-      </c>
       <c r="H23" t="str">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="I23" t="str">
         <v>3.52</v>
@@ -1578,54 +3403,54 @@
         <v>3.66</v>
       </c>
       <c r="L23" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M23" t="str">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="N23" t="str">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="str">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="P23" t="str">
-        <v>4.80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B24" t="str">
-        <v>01/23/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D24" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E24" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F24" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G24" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H24" t="str">
         <v>3.61</v>
       </c>
       <c r="I24" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J24" t="str">
         <v>3.53</v>
       </c>
-      <c r="J24" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K24" t="str">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="str">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="M24" t="str">
         <v>4.03</v>
@@ -1634,71 +3459,71 @@
         <v>4.24</v>
       </c>
       <c r="O24" t="str">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="P24" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B25" t="str">
-        <v>01/22/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C25" t="str">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
       <c r="D25" t="str">
         <v>3.71</v>
       </c>
       <c r="E25" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F25" t="str">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="G25" t="str">
         <v>3.67</v>
       </c>
       <c r="H25" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I25" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J25" t="str">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="str">
-        <v>3.85</v>
+        <v>3.82</v>
       </c>
       <c r="M25" t="str">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="N25" t="str">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="str">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="P25" t="str">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B26" t="str">
-        <v>01/21/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D26" t="str">
         <v>3.71</v>
       </c>
       <c r="E26" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="F26" t="str">
         <v>3.70</v>
@@ -1707,7 +3532,7 @@
         <v>3.67</v>
       </c>
       <c r="H26" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="str">
         <v>3.53</v>
@@ -1716,42 +3541,42 @@
         <v>3.60</v>
       </c>
       <c r="K26" t="str">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="L26" t="str">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="M26" t="str">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N26" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O26" t="str">
+        <v>4.78</v>
+      </c>
+      <c r="P26" t="str">
         <v>4.82</v>
       </c>
-      <c r="P26" t="str">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B27" t="str">
-        <v>01/20/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
       </c>
       <c r="E27" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="F27" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="G27" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H27" t="str">
         <v>3.61</v>
@@ -1760,292 +3585,292 @@
         <v>3.53</v>
       </c>
       <c r="J27" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="K27" t="str">
         <v>3.68</v>
       </c>
       <c r="L27" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="str">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="N27" t="str">
-        <v>4.30</v>
+        <v>4.26</v>
       </c>
       <c r="O27" t="str">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="P27" t="str">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B28" t="str">
-        <v>01/16/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C28" t="str">
         <v>3.75</v>
       </c>
       <c r="D28" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E28" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="F28" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G28" t="str">
         <v>3.67</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J28" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K28" t="str">
         <v>3.66</v>
       </c>
-      <c r="H28" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I28" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J28" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="K28" t="str">
-        <v>3.67</v>
-      </c>
       <c r="L28" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M28" t="str">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="N28" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O28" t="str">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
       <c r="P28" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B29" t="str">
-        <v>01/15/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C29" t="str">
         <v>3.75</v>
       </c>
       <c r="D29" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E29" t="str">
         <v>3.69</v>
       </c>
       <c r="F29" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G29" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J29" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K29" t="str">
         <v>3.68</v>
       </c>
-      <c r="G29" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H29" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I29" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="J29" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K29" t="str">
-        <v>3.62</v>
-      </c>
       <c r="L29" t="str">
-        <v>3.77</v>
+        <v>3.86</v>
       </c>
       <c r="M29" t="str">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="N29" t="str">
-        <v>4.17</v>
+        <v>4.30</v>
       </c>
       <c r="O29" t="str">
-        <v>4.74</v>
+        <v>4.87</v>
       </c>
       <c r="P29" t="str">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B30" t="str">
-        <v>01/14/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C30" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D30" t="str">
         <v>3.72</v>
       </c>
-      <c r="D30" t="str">
-        <v>3.71</v>
-      </c>
       <c r="E30" t="str">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="F30" t="str">
         <v>3.67</v>
       </c>
       <c r="G30" t="str">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H30" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I30" t="str">
-        <v>3.50</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="str">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="K30" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="L30" t="str">
+        <v>3.82</v>
+      </c>
+      <c r="M30" t="str">
+        <v>4.02</v>
+      </c>
+      <c r="N30" t="str">
+        <v>4.24</v>
+      </c>
+      <c r="O30" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P30" t="str">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B31" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="C31" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D31" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E31" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G31" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="H31" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="I31" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="J31" t="str">
         <v>3.56</v>
       </c>
-      <c r="L30" t="str">
+      <c r="K31" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="L31" t="str">
+        <v>3.77</v>
+      </c>
+      <c r="M31" t="str">
+        <v>3.96</v>
+      </c>
+      <c r="N31" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O31" t="str">
+        <v>4.74</v>
+      </c>
+      <c r="P31" t="str">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B32" t="str">
+        <v>01/14/2026</v>
+      </c>
+      <c r="C32" t="str">
         <v>3.72</v>
       </c>
-      <c r="M30" t="str">
-        <v>3.92</v>
-      </c>
-      <c r="N30" t="str">
-        <v>4.15</v>
-      </c>
-      <c r="O30" t="str">
-        <v>4.73</v>
-      </c>
-      <c r="P30" t="str">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="str">
-        <v>01/13/2026</v>
-      </c>
-      <c r="C31" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="D31" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D32" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E32" t="str">
         <v>3.66</v>
-      </c>
-      <c r="F31" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G31" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="H31" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I31" t="str">
-        <v>3.51</v>
-      </c>
-      <c r="J31" t="str">
-        <v>3.53</v>
-      </c>
-      <c r="K31" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L31" t="str">
-        <v>3.75</v>
-      </c>
-      <c r="M31" t="str">
-        <v>3.95</v>
-      </c>
-      <c r="N31" t="str">
-        <v>4.18</v>
-      </c>
-      <c r="O31" t="str">
-        <v>4.77</v>
-      </c>
-      <c r="P31" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="str">
-        <v>01/12/2026</v>
-      </c>
-      <c r="C32" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="D32" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E32" t="str">
-        <v>3.64</v>
       </c>
       <c r="F32" t="str">
         <v>3.67</v>
       </c>
       <c r="G32" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="str">
         <v>3.58</v>
       </c>
       <c r="I32" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J32" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="K32" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="L32" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M32" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N32" t="str">
+        <v>4.15</v>
+      </c>
+      <c r="O32" t="str">
+        <v>4.73</v>
+      </c>
+      <c r="P32" t="str">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B33" t="str">
+        <v>01/13/2026</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D33" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E33" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G33" t="str">
+        <v>3.63</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3.59</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="J33" t="str">
         <v>3.53</v>
       </c>
-      <c r="J32" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K32" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="L32" t="str">
-        <v>3.77</v>
-      </c>
-      <c r="M32" t="str">
-        <v>3.97</v>
-      </c>
-      <c r="N32" t="str">
-        <v>4.19</v>
-      </c>
-      <c r="O32" t="str">
-        <v>4.78</v>
-      </c>
-      <c r="P32" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="str">
-        <v>01/09/2026</v>
-      </c>
-      <c r="C33" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="D33" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E33" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="F33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="H33" t="str">
+      <c r="K33" t="str">
         <v>3.57</v>
-      </c>
-      <c r="I33" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J33" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K33" t="str">
-        <v>3.59</v>
       </c>
       <c r="L33" t="str">
         <v>3.75</v>
@@ -2057,98 +3882,98 @@
         <v>4.18</v>
       </c>
       <c r="O33" t="str">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="P33" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B34" t="str">
-        <v>01/08/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D34" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E34" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G34" t="str">
         <v>3.63</v>
       </c>
-      <c r="F34" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G34" t="str">
-        <v>3.60</v>
-      </c>
       <c r="H34" t="str">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I34" t="str">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="J34" t="str">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="K34" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="L34" t="str">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="M34" t="str">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="N34" t="str">
         <v>4.19</v>
       </c>
       <c r="O34" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P34" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B35" t="str">
-        <v>01/07/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C35" t="str">
         <v>3.70</v>
       </c>
       <c r="D35" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E35" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="F35" t="str">
         <v>3.62</v>
       </c>
       <c r="G35" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="H35" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I35" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="J35" t="str">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="K35" t="str">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="L35" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N35" t="str">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="O35" t="str">
         <v>4.76</v>
@@ -2157,24 +3982,24 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B36" t="str">
-        <v>01/06/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C36" t="str">
         <v>3.70</v>
       </c>
       <c r="D36" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="E36" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="F36" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="G36" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="H36" t="str">
         <v>3.56</v>
@@ -2183,122 +4008,217 @@
         <v>3.48</v>
       </c>
       <c r="J36" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="K36" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="L36" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="M36" t="str">
+        <v>3.95</v>
+      </c>
+      <c r="N36" t="str">
+        <v>4.19</v>
+      </c>
+      <c r="O36" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P36" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B37" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="D37" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="E37" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="F37" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="G37" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="H37" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="I37" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J37" t="str">
         <v>3.47</v>
-      </c>
-      <c r="K36" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="L36" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="M36" t="str">
-        <v>3.93</v>
-      </c>
-      <c r="N36" t="str">
-        <v>4.18</v>
-      </c>
-      <c r="O36" t="str">
-        <v>4.80</v>
-      </c>
-      <c r="P36" t="str">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="str">
-        <v>01/05/2026</v>
-      </c>
-      <c r="C37" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="D37" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E37" t="str">
-        <v>3.64</v>
-      </c>
-      <c r="F37" t="str">
-        <v>3.64</v>
-      </c>
-      <c r="G37" t="str">
-        <v>3.61</v>
-      </c>
-      <c r="H37" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="I37" t="str">
-        <v>3.47</v>
-      </c>
-      <c r="J37" t="str">
-        <v>3.46</v>
       </c>
       <c r="K37" t="str">
         <v>3.53</v>
       </c>
       <c r="L37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="M37" t="str">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="N37" t="str">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O37" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P37" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B38" t="str">
-        <v>01/02/2026</v>
+        <v>01/06/2026</v>
       </c>
       <c r="C38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="E38" t="str">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="F38" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="G38" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="H38" t="str">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I38" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="J38" t="str">
         <v>3.47</v>
       </c>
       <c r="K38" t="str">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="L38" t="str">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="M38" t="str">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="N38" t="str">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="O38" t="str">
-        <v>4.81</v>
+        <v>4.80</v>
       </c>
       <c r="P38" t="str">
         <v>4.86</v>
       </c>
     </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B39" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M39" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N39" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O39" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P39" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B40" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K40" t="str">
+        <v>3.55</v>
+      </c>
+      <c r="L40" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="M40" t="str">
+        <v>3.95</v>
+      </c>
+      <c r="N40" t="str">
+        <v>4.19</v>
+      </c>
+      <c r="O40" t="str">
+        <v>4.81</v>
+      </c>
+      <c r="P40" t="str">
+        <v>4.86</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A540E354-8D5C-4BE3-BEEC-45C6D363E13F}"/>
   </hyperlinks>
@@ -2308,44 +4228,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.1484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <f ca="1">RAND()</f>
+        <v>0.59881225838073071</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" ca="1" si="0">RAND()</f>
+        <v>0.14965089240529361</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81810873432271547</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4226623770738809E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
+        <v>2901954295088</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" aca="1" ref="C8:F9" ca="1">_xll.FI.INSTRUMENT(C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="C9">
+        <f ca="1"/>
+        <v>0.59881225838073071</v>
+      </c>
+      <c r="D9">
+        <f ca="1"/>
+        <v>0.14965089240529361</v>
+      </c>
+      <c r="E9">
+        <f ca="1"/>
+        <v>0.81810873432271547</v>
+      </c>
+      <c r="F9">
+        <f ca="1"/>
+        <v>2.4226623770738809E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(1.5)</f>
+        <v>2901824084688</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.\FI.INSTRUMENT.BOND(2,0.05,2)</f>
+        <v>2901954123712</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <f ca="1">RAND()</f>
+        <v>0.41623491150719139</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" ca="1" si="0">RAND()</f>
+        <v>0.19286554861308847</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78321876350352138</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17404571538168412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
+        <v>2901954295376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6:E7" ca="1">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B7">
+        <f ca="1"/>
+        <v>0.41623491150719139</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>0.19286554861308847</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.78321876350352138</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>0.17404571538168412</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2353,33 +4459,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="6" max="6" width="17.296875" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.34765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" cm="1">
+        <f t="array" ref="J2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3:F16,E3:E16)</f>
+        <v>2901954297392</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <f>1/12</f>
@@ -2392,13 +4509,14 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>2901954293072</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2411,16 +4529,17 @@
         <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="8" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
+        <v>2901954296672</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <f>2/12</f>
@@ -2433,22 +4552,23 @@
         <f t="shared" si="0"/>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" s="8" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
+        <v>2901954296816</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f>3/12</f>
@@ -2461,8 +4581,9 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" s="8" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>2901954293504</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,10 +4592,18 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($J$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($J$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <f>4/12</f>
@@ -2487,8 +4616,9 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" s="8" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>2901954295808</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2496,10 +4626,18 @@
       <c r="I7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($J$2,I7)</f>
+        <v>1.035142317659301E-4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($J$2,I7)</f>
+        <v>1.0539167217309795E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f>6/12</f>
@@ -2512,16 +4650,25 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8" s="8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>2901954292352</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($J$2,I8)</f>
+        <v>1.0319536825936958E-4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($J$2,I8)</f>
+        <v>1.011128615701034E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2533,19 +4680,28 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" s="8" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>2901954294512</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($J$2,I9)</f>
+        <v>1.0277943042752876E-4</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($J$2,I9)</f>
+        <v>1.0278224795759079E-4</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2556,16 +4712,25 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="8" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,2)</f>
+        <v>2901954033856</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($J$2,I10)</f>
+        <v>1.0138994732094902E-4</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($J$2,I10)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2576,16 +4741,25 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" s="8" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,2)</f>
+        <v>2901954033376</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($J$2,I11)</f>
+        <v>1.0000018246136307E-4</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($J$2,I11)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2596,16 +4770,25 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" s="8" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,2)</f>
+        <v>2901954031296</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($J$2,I12)</f>
+        <v>9.8982943136249161E-5</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($J$2,I12)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -2616,16 +4799,25 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" s="8" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,2)</f>
+        <v>2901954032896</v>
       </c>
       <c r="I13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($J$2,I13)</f>
+        <v>9.8256343618310661E-5</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($J$2,I13)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2636,16 +4828,25 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="8" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,2)</f>
+        <v>2901954032256</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($J$2,I14)</f>
+        <v>9.7711393979856768E-5</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($J$2,I14)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2656,16 +4857,25 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" s="8" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,2)</f>
+        <v>2901954030976</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($J$2,I15)</f>
+        <v>9.7287544261059322E-5</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($J$2,I15)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -2676,308 +4886,784 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" s="8" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,2)</f>
+        <v>2901954034816</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($J$2,I16)</f>
+        <v>9.6948464486021349E-5</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($J$2,I16)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($J$2,I17)</f>
+        <v>2.3372855440415508E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($J$2,I17)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($J$2,I18)</f>
+        <v>3.5010808928380252E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($J$2,I18)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($J$2,I19)</f>
+        <v>3.5074658708311578E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($J$2,I19)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($J$2,I20)</f>
+        <v>3.511722522826579E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($J$2,I20)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($J$2,I21)</f>
+        <v>3.5655466868940493E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($J$2,I21)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($J$2,I22)</f>
+        <v>3.605914809944652E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($J$2,I22)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($J$2,I23)</f>
+        <v>3.6373122389840098E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($J$2,I23)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($J$2,I24)</f>
+        <v>3.662430182215496E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($J$2,I24)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($J$2,I25)</f>
+        <v>3.7286927375230421E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($J$2,I25)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($J$2,I26)</f>
+        <v>3.783911533612664E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($J$2,I26)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($J$2,I27)</f>
+        <v>3.8306351303038826E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($J$2,I27)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($J$2,I28)</f>
+        <v>3.8706839274677836E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($J$2,I28)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($J$2,I29)</f>
+        <v>3.9262948462946826E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($J$2,I29)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($J$2,I30)</f>
+        <v>3.9749544002682186E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($J$2,I30)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($J$2,I31)</f>
+        <v>4.0178893008331031E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($J$2,I31)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($J$2,I32)</f>
+        <v>4.0560536568907783E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($J$2,I32)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($J$2,I33)</f>
+        <v>4.0902007123108042E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($J$2,I33)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($J$2,I34)</f>
+        <v>4.1209330621888265E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($J$2,I34)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($J$2,I35)</f>
+        <v>4.186315643180373E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($J$2,I35)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($J$2,I36)</f>
+        <v>4.2457543531726878E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($J$2,I36)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($J$2,I37)</f>
+        <v>4.3000244796874101E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($J$2,I37)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($J$2,I38)</f>
+        <v>4.3497720956592399E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($J$2,I38)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($J$2,I39)</f>
+        <v>4.3955399023533223E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($J$2,I39)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($J$2,I40)</f>
+        <v>4.4377871085324753E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($J$2,I40)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($J$2,I41)</f>
+        <v>4.4769048920316912E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($J$2,I41)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($J$2,I42)</f>
+        <v>4.5132285481381061E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($J$2,I42)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($J$2,I43)</f>
+        <v>4.5470471245130442E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($J$2,I43)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($J$2,I44)</f>
+        <v>4.5786111291296526E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($J$2,I44)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($J$2,I45)</f>
+        <v>4.6081387463516421E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($J$2,I45)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($J$2,I46)</f>
+        <v>4.6358208874972565E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($J$2,I46)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($J$2,I47)</f>
+        <v>4.6618253231188941E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($J$2,I47)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($J$2,I48)</f>
+        <v>4.6863000860569062E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($J$2,I48)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($J$2,I49)</f>
+        <v>4.7093762911127462E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($J$2,I49)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($J$2,I50)</f>
+        <v>4.7311704847765951E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($J$2,I50)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($J$2,I51)</f>
+        <v>4.7517866139180735E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($J$2,I51)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($J$2,I52)</f>
+        <v>4.7713176836310538E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($J$2,I52)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($J$2,I53)</f>
+        <v>4.7898471600254192E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($J$2,I53)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($J$2,I54)</f>
+        <v>4.807450162600066E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($J$2,I54)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($J$2,I55)</f>
+        <v>4.8101032464489109E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($J$2,I55)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($J$2,I56)</f>
+        <v>4.8126299929716204E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($J$2,I56)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($J$2,I57)</f>
+        <v>4.8150392164002506E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($J$2,I57)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($J$2,I58)</f>
+        <v>4.8173389296730339E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($J$2,I58)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($J$2,I59)</f>
+        <v>4.8195364334670268E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($J$2,I59)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($J$2,I60)</f>
+        <v>4.8216383936178026E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($J$2,I60)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($J$2,I61)</f>
+        <v>4.8236509086557793E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($J$2,I61)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($J$2,I62)</f>
+        <v>4.8255795689005072E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($J$2,I62)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($J$2,I63)</f>
+        <v>4.82742950831892E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($J$2,I63)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($J$2,I64)</f>
+        <v>4.8292054501605959E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($J$2,I64)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($J$2,I65)</f>
+        <v>4.8309117472241668E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($J$2,I65)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($J$2,I66)</f>
+        <v>4.8325524174776008E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($J$2,I66)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($J$2,I67)</f>
+        <v>4.834131175645999E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($J$2,I67)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($J$2,I68)</f>
+        <v>4.8356514612896417E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($J$2,I68)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($J$2,I69)</f>
+        <v>4.8371164638189704E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($J$2,I69)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($J$2,I70)</f>
+        <v>4.8385291448293948E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($J$2,I70)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($J$2,I71)</f>
+        <v>4.839892258085067E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($J$2,I71)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($J$2,I72)</f>
+        <v>4.8412083674353713E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($J$2,I72)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($J$2,I73)</f>
+        <v>4.8424798629093942E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($J$2,I73)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I74">
         <v>30</v>
       </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($J$2,I74)</f>
+        <v>4.8437089752009485E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($J$2,I74)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidney\Documents\GitHub\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123395CA-8DA6-42DB-97ED-AC4D88B10448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5AD916-C6F0-4B0A-9CCB-2A3A27C809FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2504,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2521,6 +2521,8 @@
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
+02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
 02/17/2026,3.72,3.75,3.73,3.69,3.70,3.59,3.48,3.43,3.47,3.63,3.82,4.05,4.63,4.68
 02/13/2026,3.72,3.71,3.73,3.68,3.70,3.59,3.42,3.40,3.43,3.61,3.81,4.04,4.64,4.69
@@ -2557,7 +2559,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P40">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -2605,63 +2607,63 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <v>02/18/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C7" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G7" t="str">
         <v>3.71</v>
       </c>
-      <c r="D7" t="str">
-        <v>3.74</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3.73</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="G7" t="str">
-        <v>3.70</v>
-      </c>
       <c r="H7" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="I7" t="str">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="J7" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="str">
         <v>3.50</v>
       </c>
       <c r="L7" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N7" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O7" t="str">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="P7" t="str">
-        <v>4.71</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <v>02/17/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="E8" t="str">
         <v>3.75</v>
-      </c>
-      <c r="E8" t="str">
-        <v>3.73</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
@@ -2670,133 +2672,133 @@
         <v>3.70</v>
       </c>
       <c r="H8" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I8" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J8" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="K8" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="L8" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="str">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="N8" t="str">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="O8" t="str">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="P8" t="str">
-        <v>4.68</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
-        <v>02/13/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D9" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E9" t="str">
         <v>3.73</v>
       </c>
       <c r="F9" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="G9" t="str">
         <v>3.70</v>
       </c>
       <c r="H9" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I9" t="str">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="J9" t="str">
-        <v>3.40</v>
+        <v>3.47</v>
       </c>
       <c r="K9" t="str">
-        <v>3.43</v>
+        <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="M9" t="str">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="N9" t="str">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="O9" t="str">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="P9" t="str">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <v>02/12/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C10" t="str">
         <v>3.72</v>
       </c>
       <c r="D10" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="E10" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F10" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I10" t="str">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="J10" t="str">
+        <v>3.43</v>
+      </c>
+      <c r="K10" t="str">
         <v>3.47</v>
       </c>
-      <c r="K10" t="str">
-        <v>3.49</v>
-      </c>
       <c r="L10" t="str">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="M10" t="str">
-        <v>3.87</v>
+        <v>3.82</v>
       </c>
       <c r="N10" t="str">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="O10" t="str">
+        <v>4.63</v>
+      </c>
+      <c r="P10" t="str">
         <v>4.68</v>
-      </c>
-      <c r="P10" t="str">
-        <v>4.72</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
-        <v>02/11/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C11" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D11" t="str">
         <v>3.71</v>
@@ -2805,136 +2807,136 @@
         <v>3.73</v>
       </c>
       <c r="F11" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="G11" t="str">
         <v>3.70</v>
       </c>
       <c r="H11" t="str">
-        <v>3.60</v>
+        <v>3.59</v>
       </c>
       <c r="I11" t="str">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="J11" t="str">
-        <v>3.52</v>
+        <v>3.40</v>
       </c>
       <c r="K11" t="str">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="L11" t="str">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M11" t="str">
-        <v>3.96</v>
+        <v>3.81</v>
       </c>
       <c r="N11" t="str">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="O11" t="str">
-        <v>4.76</v>
+        <v>4.64</v>
       </c>
       <c r="P11" t="str">
-        <v>4.82</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
-        <v>02/10/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
       </c>
       <c r="D12" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E12" t="str">
         <v>3.74</v>
       </c>
       <c r="F12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H12" t="str">
         <v>3.58</v>
       </c>
       <c r="I12" t="str">
-        <v>3.40</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="str">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="K12" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="L12" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="str">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="N12" t="str">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
       <c r="O12" t="str">
-        <v>4.73</v>
+        <v>4.68</v>
       </c>
       <c r="P12" t="str">
-        <v>4.78</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
-        <v>02/09/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E13" t="str">
         <v>3.73</v>
       </c>
       <c r="F13" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G13" t="str">
         <v>3.70</v>
       </c>
       <c r="H13" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I13" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="J13" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="K13" t="str">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="str">
         <v>3.75</v>
       </c>
       <c r="M13" t="str">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="N13" t="str">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="O13" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P13" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
-        <v>02/06/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C14" t="str">
         <v>3.72</v>
@@ -2946,78 +2948,78 @@
         <v>3.74</v>
       </c>
       <c r="F14" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G14" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I14" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J14" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L14" t="str">
         <v>3.70</v>
       </c>
-      <c r="H14" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I14" t="str">
-        <v>3.45</v>
-      </c>
-      <c r="J14" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="K14" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L14" t="str">
-        <v>3.76</v>
-      </c>
       <c r="M14" t="str">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="N14" t="str">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="O14" t="str">
-        <v>4.80</v>
+        <v>4.73</v>
       </c>
       <c r="P14" t="str">
-        <v>4.85</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
-        <v>02/05/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C15" t="str">
         <v>3.72</v>
       </c>
       <c r="D15" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E15" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F15" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G15" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H15" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I15" t="str">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="J15" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K15" t="str">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L15" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="str">
         <v>3.97</v>
       </c>
       <c r="N15" t="str">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="O15" t="str">
         <v>4.79</v>
@@ -3028,7 +3030,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
-        <v>02/04/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -3040,89 +3042,89 @@
         <v>3.74</v>
       </c>
       <c r="F16" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G16" t="str">
         <v>3.70</v>
       </c>
       <c r="H16" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I16" t="str">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="K16" t="str">
         <v>3.57</v>
       </c>
-      <c r="K16" t="str">
-        <v>3.64</v>
-      </c>
       <c r="L16" t="str">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="M16" t="str">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="N16" t="str">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="O16" t="str">
-        <v>4.86</v>
+        <v>4.80</v>
       </c>
       <c r="P16" t="str">
-        <v>4.91</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
-        <v>02/03/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
       </c>
       <c r="D17" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E17" t="str">
         <v>3.74</v>
       </c>
       <c r="F17" t="str">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="G17" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="H17" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="I17" t="str">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="J17" t="str">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="K17" t="str">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="str">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="M17" t="str">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="N17" t="str">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="O17" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P17" t="str">
         <v>4.85</v>
-      </c>
-      <c r="P17" t="str">
-        <v>4.90</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
-        <v>02/02/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
@@ -3161,174 +3163,174 @@
         <v>4.29</v>
       </c>
       <c r="O18" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="P18" t="str">
-        <v>4.90</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
-        <v>01/30/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
       </c>
       <c r="D19" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E19" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F19" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G19" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H19" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I19" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J19" t="str">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="K19" t="str">
-        <v>3.60</v>
+        <v>3.64</v>
       </c>
       <c r="L19" t="str">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="str">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="N19" t="str">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O19" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="P19" t="str">
-        <v>4.87</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
-        <v>01/29/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
       </c>
       <c r="D20" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E20" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F20" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H20" t="str">
         <v>3.62</v>
       </c>
       <c r="I20" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J20" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K20" t="str">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="L20" t="str">
-        <v>3.80</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="str">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="N20" t="str">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="O20" t="str">
-        <v>4.80</v>
+        <v>4.85</v>
       </c>
       <c r="P20" t="str">
-        <v>4.85</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <v>01/28/2026</v>
+        <v>01/30/2026</v>
       </c>
       <c r="C21" t="str">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="D21" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E21" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="F21" t="str">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="G21" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="H21" t="str">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="I21" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J21" t="str">
         <v>3.52</v>
       </c>
-      <c r="J21" t="str">
-        <v>3.56</v>
-      </c>
       <c r="K21" t="str">
-        <v>3.66</v>
+        <v>3.60</v>
       </c>
       <c r="L21" t="str">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="M21" t="str">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="N21" t="str">
         <v>4.26</v>
       </c>
       <c r="O21" t="str">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="P21" t="str">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <v>01/27/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C22" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D22" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E22" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="F22" t="str">
         <v>3.67</v>
       </c>
       <c r="G22" t="str">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="H22" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I22" t="str">
         <v>3.50</v>
@@ -3337,45 +3339,45 @@
         <v>3.53</v>
       </c>
       <c r="K22" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="L22" t="str">
-        <v>3.81</v>
+        <v>3.80</v>
       </c>
       <c r="M22" t="str">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="N22" t="str">
         <v>4.24</v>
       </c>
       <c r="O22" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P22" t="str">
-        <v>4.83</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <v>01/26/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D23" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E23" t="str">
         <v>3.71</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G23" t="str">
         <v>3.70</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G23" t="str">
-        <v>3.67</v>
-      </c>
       <c r="H23" t="str">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="I23" t="str">
         <v>3.52</v>
@@ -3387,54 +3389,54 @@
         <v>3.66</v>
       </c>
       <c r="L23" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M23" t="str">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="N23" t="str">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="str">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="P23" t="str">
-        <v>4.80</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <v>01/23/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D24" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E24" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F24" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G24" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H24" t="str">
         <v>3.61</v>
       </c>
       <c r="I24" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J24" t="str">
         <v>3.53</v>
       </c>
-      <c r="J24" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K24" t="str">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="str">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="M24" t="str">
         <v>4.03</v>
@@ -3443,71 +3445,71 @@
         <v>4.24</v>
       </c>
       <c r="O24" t="str">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="P24" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <v>01/22/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C25" t="str">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
       <c r="D25" t="str">
         <v>3.71</v>
       </c>
       <c r="E25" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F25" t="str">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="G25" t="str">
         <v>3.67</v>
       </c>
       <c r="H25" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I25" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J25" t="str">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="str">
-        <v>3.85</v>
+        <v>3.82</v>
       </c>
       <c r="M25" t="str">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="N25" t="str">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="str">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="P25" t="str">
-        <v>4.84</v>
+        <v>4.80</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <v>01/21/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D26" t="str">
         <v>3.71</v>
       </c>
       <c r="E26" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="F26" t="str">
         <v>3.70</v>
@@ -3516,7 +3518,7 @@
         <v>3.67</v>
       </c>
       <c r="H26" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="str">
         <v>3.53</v>
@@ -3525,42 +3527,42 @@
         <v>3.60</v>
       </c>
       <c r="K26" t="str">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="L26" t="str">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="M26" t="str">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N26" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O26" t="str">
+        <v>4.78</v>
+      </c>
+      <c r="P26" t="str">
         <v>4.82</v>
-      </c>
-      <c r="P26" t="str">
-        <v>4.87</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <v>01/20/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
       </c>
       <c r="E27" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="F27" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="G27" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H27" t="str">
         <v>3.61</v>
@@ -3569,292 +3571,292 @@
         <v>3.53</v>
       </c>
       <c r="J27" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="K27" t="str">
         <v>3.68</v>
       </c>
       <c r="L27" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="str">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="N27" t="str">
-        <v>4.30</v>
+        <v>4.26</v>
       </c>
       <c r="O27" t="str">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="P27" t="str">
-        <v>4.91</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <v>01/16/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C28" t="str">
         <v>3.75</v>
       </c>
       <c r="D28" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E28" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="F28" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G28" t="str">
         <v>3.67</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J28" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K28" t="str">
         <v>3.66</v>
       </c>
-      <c r="H28" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I28" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J28" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="K28" t="str">
-        <v>3.67</v>
-      </c>
       <c r="L28" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M28" t="str">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="N28" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O28" t="str">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
       <c r="P28" t="str">
-        <v>4.83</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <v>01/15/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C29" t="str">
         <v>3.75</v>
       </c>
       <c r="D29" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E29" t="str">
         <v>3.69</v>
       </c>
       <c r="F29" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G29" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J29" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K29" t="str">
         <v>3.68</v>
       </c>
-      <c r="G29" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H29" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I29" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="J29" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K29" t="str">
-        <v>3.62</v>
-      </c>
       <c r="L29" t="str">
-        <v>3.77</v>
+        <v>3.86</v>
       </c>
       <c r="M29" t="str">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="N29" t="str">
-        <v>4.17</v>
+        <v>4.30</v>
       </c>
       <c r="O29" t="str">
-        <v>4.74</v>
+        <v>4.87</v>
       </c>
       <c r="P29" t="str">
-        <v>4.79</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <v>01/14/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C30" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D30" t="str">
         <v>3.72</v>
       </c>
-      <c r="D30" t="str">
-        <v>3.71</v>
-      </c>
       <c r="E30" t="str">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="F30" t="str">
         <v>3.67</v>
       </c>
       <c r="G30" t="str">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H30" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I30" t="str">
-        <v>3.50</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="str">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="K30" t="str">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="L30" t="str">
-        <v>3.72</v>
+        <v>3.82</v>
       </c>
       <c r="M30" t="str">
-        <v>3.92</v>
+        <v>4.02</v>
       </c>
       <c r="N30" t="str">
-        <v>4.15</v>
+        <v>4.24</v>
       </c>
       <c r="O30" t="str">
-        <v>4.73</v>
+        <v>4.79</v>
       </c>
       <c r="P30" t="str">
-        <v>4.79</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <v>01/13/2026</v>
+        <v>01/15/2026</v>
       </c>
       <c r="C31" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="D31" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E31" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G31" t="str">
         <v>3.66</v>
       </c>
-      <c r="F31" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G31" t="str">
-        <v>3.63</v>
-      </c>
       <c r="H31" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I31" t="str">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="J31" t="str">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="K31" t="str">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="L31" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="M31" t="str">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N31" t="str">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="O31" t="str">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="P31" t="str">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
-        <v>01/12/2026</v>
+        <v>01/14/2026</v>
       </c>
       <c r="C32" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D32" t="str">
         <v>3.71</v>
       </c>
-      <c r="D32" t="str">
-        <v>3.68</v>
-      </c>
       <c r="E32" t="str">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="F32" t="str">
         <v>3.67</v>
       </c>
       <c r="G32" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="str">
         <v>3.58</v>
       </c>
       <c r="I32" t="str">
-        <v>3.53</v>
+        <v>3.50</v>
       </c>
       <c r="J32" t="str">
-        <v>3.54</v>
+        <v>3.51</v>
       </c>
       <c r="K32" t="str">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="L32" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="M32" t="str">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="N32" t="str">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="O32" t="str">
-        <v>4.78</v>
+        <v>4.73</v>
       </c>
       <c r="P32" t="str">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
-        <v>01/09/2026</v>
+        <v>01/13/2026</v>
       </c>
       <c r="C33" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="D33" t="str">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="E33" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G33" t="str">
         <v>3.63</v>
       </c>
-      <c r="F33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G33" t="str">
-        <v>3.62</v>
-      </c>
       <c r="H33" t="str">
+        <v>3.59</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="J33" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="K33" t="str">
         <v>3.57</v>
-      </c>
-      <c r="I33" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J33" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K33" t="str">
-        <v>3.59</v>
       </c>
       <c r="L33" t="str">
         <v>3.75</v>
@@ -3866,98 +3868,98 @@
         <v>4.18</v>
       </c>
       <c r="O33" t="str">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="P33" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
-        <v>01/08/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D34" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E34" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G34" t="str">
         <v>3.63</v>
       </c>
-      <c r="F34" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G34" t="str">
-        <v>3.60</v>
-      </c>
       <c r="H34" t="str">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I34" t="str">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="J34" t="str">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="K34" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="L34" t="str">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="M34" t="str">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="N34" t="str">
         <v>4.19</v>
       </c>
       <c r="O34" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P34" t="str">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
-        <v>01/07/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C35" t="str">
         <v>3.70</v>
       </c>
       <c r="D35" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E35" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="F35" t="str">
         <v>3.62</v>
       </c>
       <c r="G35" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="H35" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I35" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="J35" t="str">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="K35" t="str">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="L35" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N35" t="str">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="O35" t="str">
         <v>4.76</v>
@@ -3968,22 +3970,22 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
-        <v>01/06/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C36" t="str">
         <v>3.70</v>
       </c>
       <c r="D36" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="E36" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="F36" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="G36" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="H36" t="str">
         <v>3.56</v>
@@ -3992,118 +3994,212 @@
         <v>3.48</v>
       </c>
       <c r="J36" t="str">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="K36" t="str">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="L36" t="str">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="M36" t="str">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="N36" t="str">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="O36" t="str">
-        <v>4.80</v>
+        <v>4.79</v>
       </c>
       <c r="P36" t="str">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
-        <v>01/05/2026</v>
+        <v>01/07/2026</v>
       </c>
       <c r="C37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="D37" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="E37" t="str">
-        <v>3.64</v>
+        <v>3.60</v>
       </c>
       <c r="F37" t="str">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="G37" t="str">
-        <v>3.61</v>
+        <v>3.60</v>
       </c>
       <c r="H37" t="str">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="I37" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J37" t="str">
         <v>3.47</v>
-      </c>
-      <c r="J37" t="str">
-        <v>3.46</v>
       </c>
       <c r="K37" t="str">
         <v>3.53</v>
       </c>
       <c r="L37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="M37" t="str">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="N37" t="str">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O37" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P37" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
-        <v>01/02/2026</v>
+        <v>01/06/2026</v>
       </c>
       <c r="C38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="E38" t="str">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="F38" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="G38" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="H38" t="str">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I38" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="J38" t="str">
         <v>3.47</v>
       </c>
       <c r="K38" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="L38" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M38" t="str">
+        <v>3.93</v>
+      </c>
+      <c r="N38" t="str">
+        <v>4.18</v>
+      </c>
+      <c r="O38" t="str">
+        <v>4.80</v>
+      </c>
+      <c r="P38" t="str">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M39" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N39" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O39" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P39" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K40" t="str">
         <v>3.55</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L40" t="str">
         <v>3.74</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M40" t="str">
         <v>3.95</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N40" t="str">
         <v>4.19</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O40" t="str">
         <v>4.81</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P40" t="str">
         <v>4.86</v>
       </c>
     </row>
@@ -4120,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4165,7 +4261,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>_xll.\FI.INSTRUMENT(B3:B5, C3:C5)</f>
-        <v>2257018644176</v>
+        <v>1883224408720</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -4217,7 +4313,7 @@
       </c>
       <c r="D13">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B13,C13)</f>
-        <v>2257016136000</v>
+        <v>1883224407424</v>
       </c>
       <c r="E13">
         <f>_xll.FI.INSTRUMENT(D13)</f>
@@ -4233,7 +4329,7 @@
       </c>
       <c r="D14">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B14,C14)</f>
-        <v>2257023988160</v>
+        <v>1883224406416</v>
       </c>
       <c r="E14">
         <f>_xll.FI.INSTRUMENT(D14)</f>
@@ -4249,7 +4345,7 @@
       </c>
       <c r="D15">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B15,C15)</f>
-        <v>2257023982832</v>
+        <v>1883224395472</v>
       </c>
       <c r="E15">
         <f>_xll.FI.INSTRUMENT(D15)</f>
@@ -4285,7 +4381,7 @@
       </c>
       <c r="E17">
         <f>_xll.\FI.INSTRUMENT.BOND(B17,C17,D17)</f>
-        <v>2258492791824</v>
+        <v>1882951648256</v>
       </c>
       <c r="F17">
         <f>_xll.FI.INSTRUMENT(E17)</f>
@@ -4304,7 +4400,7 @@
       </c>
       <c r="E18">
         <f>_xll.\FI.INSTRUMENT.BOND(B18,C18,D18)</f>
-        <v>2258492791504</v>
+        <v>1882951651296</v>
       </c>
       <c r="F18">
         <f>_xll.FI.INSTRUMENT(E18)</f>
@@ -4323,7 +4419,7 @@
       </c>
       <c r="E19">
         <f>_xll.\FI.INSTRUMENT.BOND(B19,C19,D19)</f>
-        <v>2258492791344</v>
+        <v>1882951647616</v>
       </c>
       <c r="F19">
         <f>_xll.FI.INSTRUMENT(E19)</f>
@@ -4342,7 +4438,7 @@
       </c>
       <c r="E20">
         <f>_xll.\FI.INSTRUMENT.BOND(B20,C20,D20)</f>
-        <v>2258492791184</v>
+        <v>1882951645696</v>
       </c>
       <c r="F20">
         <f>_xll.FI.INSTRUMENT(E20)</f>
@@ -4408,7 +4504,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.\FI.CURVE.PWFLAT(B3:B6,C3:C6)</f>
-        <v>2259012291248</v>
+        <v>1883224408288</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4456,8 +4552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4483,7 +4579,7 @@
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(G3:G16, E3:E16)</f>
-        <v>2004912543088</v>
+        <v>1883224391728</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -4506,7 +4602,7 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3, 1)</f>
-        <v>2004637718992</v>
+        <v>1883224402960</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -4529,7 +4625,7 @@
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4, 1)</f>
-        <v>2005036506144</v>
+        <v>1883224404688</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -4555,7 +4651,7 @@
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5, 1)</f>
-        <v>2005036508304</v>
+        <v>1883224405984</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>25</v>
@@ -4587,7 +4683,7 @@
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6, 1)</f>
-        <v>2004366409088</v>
+        <v>1883224402096</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -4625,7 +4721,7 @@
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7, 1)</f>
-        <v>2005036503264</v>
+        <v>1883224401232</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -4662,7 +4758,7 @@
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8, 1)</f>
-        <v>2004366408080</v>
+        <v>1883224416640</v>
       </c>
       <c r="I8">
         <v>0.2</v>
@@ -4695,7 +4791,7 @@
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9, 1)</f>
-        <v>2004366410096</v>
+        <v>1883224403248</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
@@ -4730,7 +4826,7 @@
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.\FI.INSTRUMENT.BOND(C10, D10, 2)</f>
-        <v>2004634307712</v>
+        <v>1882951648736</v>
       </c>
       <c r="I10">
         <v>0.4</v>
@@ -4762,7 +4858,7 @@
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.\FI.INSTRUMENT.BOND(C11, D11, 2)</f>
-        <v>2004634302432</v>
+        <v>1882951645216</v>
       </c>
       <c r="I11">
         <v>0.5</v>
@@ -4794,7 +4890,7 @@
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.\FI.INSTRUMENT.BOND(C12, D12, 2)</f>
-        <v>2004634307072</v>
+        <v>1882951652736</v>
       </c>
       <c r="I12">
         <v>0.6</v>
@@ -4826,7 +4922,7 @@
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.\FI.INSTRUMENT.BOND(C13, D13, 2)</f>
-        <v>2004634306592</v>
+        <v>1882951652576</v>
       </c>
       <c r="I13">
         <v>0.7</v>
@@ -4858,7 +4954,7 @@
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.\FI.INSTRUMENT.BOND(C14, D14, 2)</f>
-        <v>2004634306112</v>
+        <v>1882951649856</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
@@ -4890,7 +4986,7 @@
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.\FI.INSTRUMENT.BOND(C15, D15, 2)</f>
-        <v>2004634303072</v>
+        <v>1882951651456</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
@@ -4922,7 +5018,7 @@
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.\FI.INSTRUMENT.BOND(C16, D16, 2)</f>
-        <v>2004634302912</v>
+        <v>1882951646176</v>
       </c>
       <c r="I16">
         <v>1</v>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBA36B-3DF3-4BF4-A81C-6DE07F559DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="108" yWindow="1740" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -151,19 +148,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
   </si>
   <si>
     <t>use \fi.ucurve.bootstrap</t>
@@ -183,6 +171,33 @@
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
   </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>zero bond</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>Use of \FI.CURVE.PWFLAT</t>
+  </si>
+  <si>
+    <t>Use of FI.CURVE.PWFLAT</t>
+  </si>
+  <si>
+    <t>Use of \FI.INSTRUMENT</t>
+  </si>
+  <si>
+    <t>Use of \FI.INSTRUMENT.ZERO_COUPON_BOND</t>
+  </si>
+  <si>
+    <t>Use of \FI.INSTRUMENT.BOND</t>
+  </si>
+  <si>
+    <t>The following also use FI.INSTRUMENT</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -228,6 +243,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +303,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +317,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -376,6 +415,1848 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate and Forwar Rate across time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$7:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$J$7:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.035142317659301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0319536825936958E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0277943042752876E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0138994732094902E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000018246136307E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8982943136249161E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8256343618310661E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7711393979856768E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7287544261059322E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6948464486021349E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3173759772428536E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4712165426399794E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.477437710056816E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4815851550013738E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5344223875980733E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5740503120455978E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.604872031060339E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6295294062721327E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6945179466388506E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7486750636111149E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7945003164338006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8337791045675314E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8882386521731156E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9358907563280018E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9779367305823134E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0153109299194786E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0487510030106269E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0788470687926605E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1426325230369251E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.200619299622621E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2535637478095606E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3020961586475885E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.346745976618574E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3879611932071759E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4261234307892146E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4615597942582512E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4945522705914918E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5253452485025165E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5541515826773453E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5811575209662482E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6065267357224902E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6304036437283647E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6529161569910465E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6741779750724681E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.694290505690029E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7133444820645611E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7314213314455268E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7485943383574439E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7511833371737464E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.7536490503321288E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.756000079157563E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7582442430363872E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7603886662983749E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7624398537663627E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7644037566612452E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7662858302688405E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7680910845455136E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7698241286511199E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7714892102427804E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.773090250234762E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.7746308736232722E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.7761144368862835E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7775440523942739E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7789226102055514E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.7802527975673109E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.7815371163993543E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7827778989998029E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7839773221802363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25C2-46F7-9132-D0D8056B528D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$7:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$K$7:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0539167217309795E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.011128615701034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0278224795759079E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9327382388313569E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9327382388313569E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5023223797241633E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5023223797241633E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8514457831782707E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8514457831782707E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8514457831782707E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8514457831782707E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3444033503060267E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3444033503060267E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3444033503060267E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3444033503060267E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6506723186512944E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.418341607922228E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8547432898258212E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25C2-46F7-9132-D0D8056B528D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1778120512"/>
+        <c:axId val="1778131072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1778120512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778131072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1778131072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778120512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>720090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5AF9E0-F9FF-D0BC-6ECC-52202584F7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,14 +2582,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +2627,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +2675,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +2722,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +2769,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +2816,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +2863,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +2910,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +2957,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +3004,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +3051,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +3098,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +3145,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +3192,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +3239,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +3286,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +3333,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +3380,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +3427,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +3474,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +3521,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +3568,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +3615,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +3662,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +3709,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +3756,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +3803,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +3850,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +3897,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +3944,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +3991,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +4038,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +4085,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +4132,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2308,21 +4189,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11" cm="1">
+        <f t="array" ref="B5">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
+        <v>2108863780496</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" cm="1">
+        <f t="array" ref="B6:E7">_xll.FI.INSTRUMENT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="12" cm="1">
+        <f t="array" ref="B10">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B8,B9)</f>
+        <v>2110523736064</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" cm="1">
+        <f t="array" ref="B11:B12">_xll.FI.INSTRUMENT(B10)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" cm="1">
+        <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(2,0.5,2)</f>
+        <v>2110732027264</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" cm="1">
+        <f t="array" ref="B14:E15">_xll.FI.INSTRUMENT(B13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,17 +4407,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
+        <v>2110908399376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:E7">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2351,13 +4501,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B2:T75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2371,13 +4528,17 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(_xlfn.ANCHORARRAY(G3),_xlfn.ANCHORARRAY(G4))</f>
+        <v>2110728488496</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2392,13 +4553,57 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="6" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>2110728483888</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3:T3">TRANSPOSE(F3:F16)</f>
+        <v>2110728483888</v>
+      </c>
+      <c r="H3">
+        <v>2110908422272</v>
+      </c>
+      <c r="I3">
+        <v>2110908422848</v>
+      </c>
+      <c r="J3">
+        <v>2110908419824</v>
+      </c>
+      <c r="K3">
+        <v>2110908414352</v>
+      </c>
+      <c r="L3">
+        <v>2110908410608</v>
+      </c>
+      <c r="M3">
+        <v>2110908406288</v>
+      </c>
+      <c r="N3">
+        <v>2110905579056</v>
+      </c>
+      <c r="O3">
+        <v>2110905581936</v>
+      </c>
+      <c r="P3">
+        <v>2110905581776</v>
+      </c>
+      <c r="Q3">
+        <v>2110905575696</v>
+      </c>
+      <c r="R3">
+        <v>2110905575536</v>
+      </c>
+      <c r="S3">
+        <v>2110905583216</v>
+      </c>
+      <c r="T3">
+        <v>2110905588176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2408,17 +4613,58 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
+        <f>1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
+        <v>2110908422272</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4:T4">TRANSPOSE(E3:E16)</f>
+        <v>0.99999141203703701</v>
+      </c>
+      <c r="H4">
+        <v>0.99998701388888889</v>
+      </c>
+      <c r="I4">
+        <v>0.99998273148148153</v>
+      </c>
+      <c r="J4">
+        <v>0.99997430555555555</v>
+      </c>
+      <c r="K4">
+        <v>0.99996574074074074</v>
+      </c>
+      <c r="L4">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.99990305555555559</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2430,23 +4676,18 @@
         <v>3.73E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E9" si="0">1-D5*C5/360</f>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
+        <v>2110908422848</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,18 +4702,21 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6" cm="1">
-        <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>2110908419824</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2487,17 +4731,27 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>2110908414352</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" cm="1">
+        <f t="array" ref="I7:I75">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H7,1,0,H7),_xlfn.SEQUENCE(1+29/H8,1,1,H8))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($I$2,I7)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($I$2,I7)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2512,14 +4766,26 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>2110908410608</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
       </c>
       <c r="I8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.1</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($I$2,I8)</f>
+        <v>1.035142317659301E-4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($I$2,I8)</f>
+        <v>1.0539167217309795E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2533,17 +4799,23 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>2110908406288</v>
       </c>
       <c r="I9">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($I$2,I9)</f>
+        <v>1.0319536825936958E-4</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($I$2,I9)</f>
+        <v>1.011128615701034E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +4828,26 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="6" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
+        <v>2110905579056</v>
       </c>
       <c r="I10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($I$2,I10)</f>
+        <v>1.0277943042752876E-4</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($I$2,I10)</f>
+        <v>1.0278224795759079E-4</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2576,14 +4860,23 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
+        <v>2110905581936</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.4</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($I$2,I11)</f>
+        <v>1.0138994732094902E-4</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($I$2,I11)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2596,14 +4889,23 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
+        <v>2110905581776</v>
       </c>
       <c r="I12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($I$2,I12)</f>
+        <v>1.0000018246136307E-4</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($I$2,I12)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +4918,23 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
+        <v>2110905575696</v>
       </c>
       <c r="I13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.6</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($I$2,I13)</f>
+        <v>9.8982943136249161E-5</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($I$2,I13)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2636,14 +4947,23 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
+        <v>2110905575536</v>
       </c>
       <c r="I14">
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.7</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($I$2,I14)</f>
+        <v>9.8256343618310661E-5</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($I$2,I14)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2656,14 +4976,23 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
+        <v>2110905583216</v>
       </c>
       <c r="I15">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($I$2,I15)</f>
+        <v>9.7711393979856768E-5</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($I$2,I15)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,301 +5005,787 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
+        <v>2110905588176</v>
+      </c>
+      <c r="I16">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($I$2,I16)</f>
+        <v>9.7287544261059322E-5</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($I$2,I16)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($I$2,I17)</f>
+        <v>9.6948464486021349E-5</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($I$2,I17)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($I$2,I18)</f>
+        <v>2.3173759772428536E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($I$2,I18)</f>
+        <v>6.9327382388313569E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($I$2,I19)</f>
+        <v>3.4712165426399794E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($I$2,I19)</f>
+        <v>6.9327382388313569E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($I$2,I20)</f>
+        <v>3.477437710056816E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($I$2,I20)</f>
+        <v>3.5023223797241633E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($I$2,I21)</f>
+        <v>3.4815851550013738E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($I$2,I21)</f>
+        <v>3.5023223797241633E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>3.5</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($I$2,I22)</f>
+        <v>3.5344223875980733E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($I$2,I22)</f>
+        <v>3.8514457831782707E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($I$2,I23)</f>
+        <v>3.5740503120455978E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($I$2,I23)</f>
+        <v>3.8514457831782707E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($I$2,I24)</f>
+        <v>3.604872031060339E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($I$2,I24)</f>
+        <v>3.8514457831782707E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($I$2,I25)</f>
+        <v>3.6295294062721327E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($I$2,I25)</f>
+        <v>3.8514457831782707E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>5.5</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($I$2,I26)</f>
+        <v>3.6945179466388506E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($I$2,I26)</f>
+        <v>4.3444033503060267E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($I$2,I27)</f>
+        <v>3.7486750636111149E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($I$2,I27)</f>
+        <v>4.3444033503060267E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>6.5</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($I$2,I28)</f>
+        <v>3.7945003164338006E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($I$2,I28)</f>
+        <v>4.3444033503060267E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($I$2,I29)</f>
+        <v>3.8337791045675314E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($I$2,I29)</f>
+        <v>4.3444033503060267E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>7.5</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($I$2,I30)</f>
+        <v>3.8882386521731156E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($I$2,I30)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($I$2,I31)</f>
+        <v>3.9358907563280018E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($I$2,I31)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>8.5</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($I$2,I32)</f>
+        <v>3.9779367305823134E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($I$2,I32)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($I$2,I33)</f>
+        <v>4.0153109299194786E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($I$2,I33)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>9.5</v>
+      </c>
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($I$2,I34)</f>
+        <v>4.0487510030106269E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($I$2,I34)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($I$2,I35)</f>
+        <v>4.0788470687926605E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($I$2,I35)</f>
+        <v>4.6506723186512944E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <v>10.5</v>
+      </c>
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($I$2,I36)</f>
+        <v>4.1426325230369251E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($I$2,I36)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($I$2,I37)</f>
+        <v>4.200619299622621E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($I$2,I37)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <v>11.5</v>
+      </c>
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($I$2,I38)</f>
+        <v>4.2535637478095606E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($I$2,I38)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($I$2,I39)</f>
+        <v>4.3020961586475885E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($I$2,I39)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <v>12.5</v>
+      </c>
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($I$2,I40)</f>
+        <v>4.346745976618574E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($I$2,I40)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($I$2,I41)</f>
+        <v>4.3879611932071759E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($I$2,I41)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>13.5</v>
+      </c>
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($I$2,I42)</f>
+        <v>4.4261234307892146E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($I$2,I42)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($I$2,I43)</f>
+        <v>4.4615597942582512E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($I$2,I43)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>14.5</v>
+      </c>
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($I$2,I44)</f>
+        <v>4.4945522705914918E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($I$2,I44)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($I$2,I45)</f>
+        <v>4.5253452485025165E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($I$2,I45)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>15.5</v>
+      </c>
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($I$2,I46)</f>
+        <v>4.5541515826773453E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($I$2,I46)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($I$2,I47)</f>
+        <v>4.5811575209662482E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($I$2,I47)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>16.5</v>
+      </c>
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($I$2,I48)</f>
+        <v>4.6065267357224902E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($I$2,I48)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>17</v>
+      </c>
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($I$2,I49)</f>
+        <v>4.6304036437283647E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($I$2,I49)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>17.5</v>
+      </c>
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($I$2,I50)</f>
+        <v>4.6529161569910465E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($I$2,I50)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>18</v>
+      </c>
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($I$2,I51)</f>
+        <v>4.6741779750724681E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($I$2,I51)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>18.5</v>
+      </c>
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($I$2,I52)</f>
+        <v>4.694290505690029E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($I$2,I52)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($I$2,I53)</f>
+        <v>4.7133444820645611E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($I$2,I53)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>19.5</v>
+      </c>
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($I$2,I54)</f>
+        <v>4.7314213314455268E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($I$2,I54)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($I$2,I55)</f>
+        <v>4.7485943383574439E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($I$2,I55)</f>
+        <v>5.418341607922228E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>20.5</v>
+      </c>
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($I$2,I56)</f>
+        <v>4.7511833371737464E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($I$2,I56)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I57">
         <v>21</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I23">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I25">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I27">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I29">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I31">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I33">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I35">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I37">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I39">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I41">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I43">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I45">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I47">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I48">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I49">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I52">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I53">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I55">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I56">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I57">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($I$2,I57)</f>
+        <v>4.7536490503321288E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($I$2,I57)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I58">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I58">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($I$2,I58)</f>
+        <v>4.756000079157563E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($I$2,I58)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I59">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I59">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($I$2,I59)</f>
+        <v>4.7582442430363872E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($I$2,I59)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I60">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I60">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($I$2,I60)</f>
+        <v>4.7603886662983749E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($I$2,I60)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I61">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I61">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($I$2,I61)</f>
+        <v>4.7624398537663627E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($I$2,I61)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I62">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I62">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($I$2,I62)</f>
+        <v>4.7644037566612452E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($I$2,I62)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I63">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I63">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($I$2,I63)</f>
+        <v>4.7662858302688405E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($I$2,I63)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I64">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I64">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($I$2,I64)</f>
+        <v>4.7680910845455136E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($I$2,I64)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I65">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I65">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($I$2,I65)</f>
+        <v>4.7698241286511199E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($I$2,I65)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I66">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I66">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($I$2,I66)</f>
+        <v>4.7714892102427804E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($I$2,I66)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I67">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I67">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($I$2,I67)</f>
+        <v>4.773090250234762E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($I$2,I67)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I68">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I68">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($I$2,I68)</f>
+        <v>4.7746308736232722E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($I$2,I68)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I69">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I69">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($I$2,I69)</f>
+        <v>4.7761144368862835E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($I$2,I69)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I70">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I70">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($I$2,I70)</f>
+        <v>4.7775440523942739E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($I$2,I70)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I71">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($I$2,I71)</f>
+        <v>4.7789226102055514E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($I$2,I71)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I72">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I72">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($I$2,I72)</f>
+        <v>4.7802527975673109E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($I$2,I72)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I73">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I73">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($I$2,I73)</f>
+        <v>4.7815371163993543E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($I$2,I73)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I74">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I74">
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($I$2,I74)</f>
+        <v>4.7827778989998029E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($I$2,I74)</f>
+        <v>4.8547432898258212E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I75">
         <v>30</v>
+      </c>
+      <c r="J75" cm="1">
+        <f t="array" ref="J75">_xll.FI.CURVE.SPOT($I$2,I75)</f>
+        <v>4.7839773221802363E-2</v>
+      </c>
+      <c r="K75" cm="1">
+        <f t="array" ref="K75">_xll.FI.CURVE.FORWARD($I$2,I75)</f>
+        <v>4.8547432898258212E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +5793,7 @@
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CBA36B-3DF3-4BF4-A81C-6DE07F559DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05C896-FA27-4FA0-A512-630D59FCA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1740" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="108" yWindow="1200" windowWidth="19176" windowHeight="12480" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -319,14 +319,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4191,7 +4191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4503,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4676,7 +4676,7 @@
         <v>3.73E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E4:E9" si="0">1-D5*C5/360</f>
+        <f t="shared" ref="E5:E9" si="0">1-D5*C5/360</f>
         <v>0.99998273148148153</v>
       </c>
       <c r="F5" cm="1">

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F05C896-FA27-4FA0-A512-630D59FCA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E5E62-921A-41ED-9685-6BE459BC6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1200" windowWidth="19176" windowHeight="12480" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="3108" yWindow="1332" windowWidth="19176" windowHeight="12480" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -4192,7 +4192,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E5E62-921A-41ED-9685-6BE459BC6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CA276-EBE8-4A77-89B4-10A5DC3379F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="1332" windowWidth="19176" windowHeight="12480" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="3396" yWindow="2088" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -758,211 +758,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>1.0313874368449654E-4</c:v>
+                  <c:v>3.715831656820115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.035142317659301E-4</c:v>
+                  <c:v>3.7323037168694624E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0319536825936958E-4</c:v>
+                  <c:v>3.7294240837115154E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0277943042752876E-4</c:v>
+                  <c:v>3.721079054557859E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0138994732094902E-4</c:v>
+                  <c:v>3.6778519999290514E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0000018246136307E-4</c:v>
+                  <c:v>3.632691013270551E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8982943136249161E-5</c:v>
+                  <c:v>3.6059207069266165E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8256343618310661E-5</c:v>
+                  <c:v>3.5867990595380914E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7711393979856768E-5</c:v>
+                  <c:v>3.5724578239966977E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7287544261059322E-5</c:v>
+                  <c:v>3.5613035296867254E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6948464486021349E-5</c:v>
+                  <c:v>3.5523800942387468E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3173759772428536E-2</c:v>
+                  <c:v>3.4565988638108697E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4712165426399794E-2</c:v>
+                  <c:v>3.4087082485969311E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.477437710056816E-2</c:v>
+                  <c:v>3.4271966353096553E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4815851550013738E-2</c:v>
+                  <c:v>3.4395222264514712E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5344223875980733E-2</c:v>
+                  <c:v>3.4979007110321814E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5740503120455978E-2</c:v>
+                  <c:v>3.5416845744677142E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.604872031060339E-2</c:v>
+                  <c:v>3.5757386904731278E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6295294062721327E-2</c:v>
+                  <c:v>3.6029819832774604E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6945179466388506E-2</c:v>
+                  <c:v>3.6699769586277319E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7486750636111149E-2</c:v>
+                  <c:v>3.725806104752958E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7945003164338006E-2</c:v>
+                  <c:v>3.7730461514743033E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8337791045675314E-2</c:v>
+                  <c:v>3.8135376200925997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8882386521731156E-2</c:v>
+                  <c:v>3.8690866617754754E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9358907563280018E-2</c:v>
+                  <c:v>3.9176920732479914E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9779367305823134E-2</c:v>
+                  <c:v>3.9605792010178588E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0153109299194786E-2</c:v>
+                  <c:v>3.9987010923688518E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0487510030106269E-2</c:v>
+                  <c:v>4.0328101530513194E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0788470687926605E-2</c:v>
+                  <c:v>4.06350830766554E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1426325230369251E-2</c:v>
+                  <c:v>4.1278260592309116E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.200619299622621E-2</c:v>
+                  <c:v>4.1862967424721592E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2535637478095606E-2</c:v>
+                  <c:v>4.2396830184750371E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3020961586475885E-2</c:v>
+                  <c:v>4.2886204381443416E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.346745976618574E-2</c:v>
+                  <c:v>4.3336428642401031E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3879611932071759E-2</c:v>
+                  <c:v>4.3752020267900343E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4261234307892146E-2</c:v>
+                  <c:v>4.413682732854788E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4615597942582512E-2</c:v>
+                  <c:v>4.4494148170577723E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4945522705914918E-2</c:v>
+                  <c:v>4.4826826195915853E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.5253452485025165E-2</c:v>
+                  <c:v>4.5137325686231439E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.5541515826773453E-2</c:v>
+                  <c:v>4.5427792951365377E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.5811575209662482E-2</c:v>
+                  <c:v>4.5700106012428444E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.6065267357224902E-2</c:v>
+                  <c:v>4.59559152516089E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.6304036437283647E-2</c:v>
+                  <c:v>4.6196676888484632E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.6529161569910465E-2</c:v>
+                  <c:v>4.6423680717538877E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6741779750724681E-2</c:v>
+                  <c:v>4.6638073222756787E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.694290505690029E-2</c:v>
+                  <c:v>4.6840876943908857E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.7133444820645611E-2</c:v>
+                  <c:v>4.7033006785000303E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.7314213314455268E-2</c:v>
+                  <c:v>4.7215283813728075E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7485943383574439E-2</c:v>
+                  <c:v>4.7388446991019462E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.7511833371737464E-2</c:v>
+                  <c:v>4.7416517109592764E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.7536490503321288E-2</c:v>
+                  <c:v>4.744325055585305E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.756000079157563E-2</c:v>
+                  <c:v>4.746874058600821E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.7582442430363872E-2</c:v>
+                  <c:v>4.7493071978429044E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.7603886662983749E-2</c:v>
+                  <c:v>4.7516321975631173E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.7624398537663627E-2</c:v>
+                  <c:v>4.7538561103389727E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.7644037566612452E-2</c:v>
+                  <c:v>4.7559853885286218E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.7662858302688405E-2</c:v>
+                  <c:v>4.7580259467937029E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.7680910845455136E-2</c:v>
+                  <c:v>4.7599832169663313E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7698241286511199E-2</c:v>
+                  <c:v>4.7618621963320534E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.7714892102427804E-2</c:v>
+                  <c:v>4.7636674902324545E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.773090250234762E-2</c:v>
+                  <c:v>4.7654033497520704E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.7746308736232722E-2</c:v>
+                  <c:v>4.767073705138871E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.7761144368862835E-2</c:v>
+                  <c:v>4.7686821955113451E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.7775440523942739E-2</c:v>
+                  <c:v>4.7702321953248202E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.7789226102055514E-2</c:v>
+                  <c:v>4.7717268380021001E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7802527975673109E-2</c:v>
+                  <c:v>4.7731690370766675E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.7815371163993543E-2</c:v>
+                  <c:v>4.7745615051486646E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.7827778989998029E-2</c:v>
+                  <c:v>4.7759067709131367E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.7839773221802363E-2</c:v>
+                  <c:v>4.777207194485459E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,211 +1235,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>1.0313874368449654E-4</c:v>
+                  <c:v>3.715831656820115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0539167217309795E-4</c:v>
+                  <c:v>3.814664017116199E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.011128615701034E-4</c:v>
+                  <c:v>3.6683596176462913E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0278224795759079E-4</c:v>
+                  <c:v>3.7404183748547974E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4441123023019248E-5</c:v>
+                  <c:v>3.4520470666365488E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4441123023019248E-5</c:v>
+                  <c:v>3.4520470666365488E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3896746510679631E-5</c:v>
+                  <c:v>3.4720691752069432E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3896746510679631E-5</c:v>
+                  <c:v>3.4720691752069432E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3896746510679631E-5</c:v>
+                  <c:v>3.4720691752069432E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3896746510679631E-5</c:v>
+                  <c:v>3.4720691752069432E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3896746510679631E-5</c:v>
+                  <c:v>3.4720691752069432E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9327382388313569E-2</c:v>
+                  <c:v>3.2650364029551147E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9327382388313569E-2</c:v>
+                  <c:v>3.2650364029551147E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5023223797241633E-2</c:v>
+                  <c:v>3.5011501821605513E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5023223797241633E-2</c:v>
+                  <c:v>3.5011501821605513E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8514457831782707E-2</c:v>
+                  <c:v>3.8481716185164432E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8514457831782707E-2</c:v>
+                  <c:v>3.8481716185164432E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8514457831782707E-2</c:v>
+                  <c:v>3.8481716185164432E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8514457831782707E-2</c:v>
+                  <c:v>3.8481716185164432E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3444033503060267E-2</c:v>
+                  <c:v>4.3399267121304493E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3444033503060267E-2</c:v>
+                  <c:v>4.3399267121304493E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3444033503060267E-2</c:v>
+                  <c:v>4.3399267121304493E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3444033503060267E-2</c:v>
+                  <c:v>4.3399267121304493E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.6506723186512944E-2</c:v>
+                  <c:v>4.6467732453357329E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.418341607922228E-2</c:v>
+                  <c:v>5.4141810905383524E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.8547432898258212E-2</c:v>
+                  <c:v>4.8539321852524846E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4245,7 +4245,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="11" cm="1">
         <f t="array" ref="B5">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
-        <v>2108863780496</v>
+        <v>2139811972544</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
@@ -4313,7 +4313,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="12" cm="1">
         <f t="array" ref="B10">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B8,B9)</f>
-        <v>2110523736064</v>
+        <v>2139811973120</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>34</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B13" s="12" cm="1">
         <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(2,0.5,2)</f>
-        <v>2110732027264</v>
+        <v>2139912826208</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>35</v>
@@ -4454,7 +4454,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
-        <v>2110908399376</v>
+        <v>2139811976864</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -4503,15 +4503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:T75"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.08203125" customWidth="1"/>
-    <col min="6" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
@@ -4535,7 +4537,7 @@
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(_xlfn.ANCHORARRAY(G3),_xlfn.ANCHORARRAY(G4))</f>
-        <v>2110728488496</v>
+        <v>2139811979168</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -4550,55 +4552,55 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E3">
-        <f>1-D3*C3/360</f>
-        <v>0.99999141203703701</v>
+        <f>1-D3*C3</f>
+        <v>0.99690833333333329</v>
       </c>
       <c r="F3" s="6" cm="1">
         <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
-        <v>2110728483888</v>
+        <v>2139811973984</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3:T3">TRANSPOSE(F3:F16)</f>
-        <v>2110728483888</v>
+        <v>2139811973984</v>
       </c>
       <c r="H3">
-        <v>2110908422272</v>
+        <v>2139811974416</v>
       </c>
       <c r="I3">
-        <v>2110908422848</v>
+        <v>2139811977440</v>
       </c>
       <c r="J3">
-        <v>2110908419824</v>
+        <v>2139811975856</v>
       </c>
       <c r="K3">
-        <v>2110908414352</v>
+        <v>2139811974992</v>
       </c>
       <c r="L3">
-        <v>2110908410608</v>
+        <v>2139811977152</v>
       </c>
       <c r="M3">
-        <v>2110908406288</v>
+        <v>2139811976000</v>
       </c>
       <c r="N3">
-        <v>2110905579056</v>
+        <v>2139912825888</v>
       </c>
       <c r="O3">
-        <v>2110905581936</v>
+        <v>2139912821728</v>
       </c>
       <c r="P3">
-        <v>2110905581776</v>
+        <v>2139912819968</v>
       </c>
       <c r="Q3">
-        <v>2110905575696</v>
+        <v>2139905529344</v>
       </c>
       <c r="R3">
-        <v>2110905575536</v>
+        <v>2139905528544</v>
       </c>
       <c r="S3">
-        <v>2110905583216</v>
+        <v>2139910659584</v>
       </c>
       <c r="T3">
-        <v>2110905588176</v>
+        <v>2139912823808</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
@@ -4613,34 +4615,34 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f>1-D4*C4/360</f>
-        <v>0.99998701388888889</v>
+        <f t="shared" ref="E4:E9" si="0">1-D4*C4</f>
+        <v>0.99532500000000002</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
-        <v>2110908422272</v>
+        <v>2139811974416</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4:T4">TRANSPOSE(E3:E16)</f>
-        <v>0.99999141203703701</v>
+        <v>0.99690833333333329</v>
       </c>
       <c r="H4">
-        <v>0.99998701388888889</v>
+        <v>0.99532500000000002</v>
       </c>
       <c r="I4">
-        <v>0.99998273148148153</v>
+        <v>0.99378333333333335</v>
       </c>
       <c r="J4">
-        <v>0.99997430555555555</v>
+        <v>0.99075000000000002</v>
       </c>
       <c r="K4">
-        <v>0.99996574074074074</v>
+        <v>0.98766666666666669</v>
       </c>
       <c r="L4">
-        <v>0.99995000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="M4">
-        <v>0.99990305555555559</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -4676,12 +4678,12 @@
         <v>3.73E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E9" si="0">1-D5*C5/360</f>
-        <v>0.99998273148148153</v>
+        <f t="shared" si="0"/>
+        <v>0.99378333333333335</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
-        <v>2110908422848</v>
+        <v>2139811977440</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -4700,11 +4702,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99997430555555555</v>
+        <v>0.99075000000000002</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
-        <v>2110908419824</v>
+        <v>2139811975856</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>23</v>
@@ -4729,11 +4731,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99996574074074074</v>
+        <v>0.98766666666666669</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
-        <v>2110908414352</v>
+        <v>2139811974992</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -4744,11 +4746,11 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">_xll.FI.CURVE.SPOT($I$2,I7)</f>
-        <v>1.0313874368449654E-4</v>
+        <v>3.715831656820115E-2</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($I$2,I7)</f>
-        <v>1.0313874368449654E-4</v>
+        <v>3.715831656820115E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -4764,11 +4766,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
-        <v>2110908410608</v>
+        <v>2139811977152</v>
       </c>
       <c r="H8">
         <v>0.5</v>
@@ -4778,11 +4780,11 @@
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">_xll.FI.CURVE.SPOT($I$2,I8)</f>
-        <v>1.035142317659301E-4</v>
+        <v>3.7323037168694624E-2</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($I$2,I8)</f>
-        <v>1.0539167217309795E-4</v>
+        <v>3.814664017116199E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -4797,22 +4799,22 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99990305555555559</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
-        <v>2110908406288</v>
+        <v>2139811976000</v>
       </c>
       <c r="I9">
         <v>0.2</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">_xll.FI.CURVE.SPOT($I$2,I9)</f>
-        <v>1.0319536825936958E-4</v>
+        <v>3.7294240837115154E-2</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($I$2,I9)</f>
-        <v>1.011128615701034E-4</v>
+        <v>3.6683596176462913E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
@@ -4830,18 +4832,18 @@
       </c>
       <c r="F10" s="6" cm="1">
         <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
-        <v>2110905579056</v>
+        <v>2139912825888</v>
       </c>
       <c r="I10">
         <v>0.30000000000000004</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">_xll.FI.CURVE.SPOT($I$2,I10)</f>
-        <v>1.0277943042752876E-4</v>
+        <v>3.721079054557859E-2</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($I$2,I10)</f>
-        <v>1.0278224795759079E-4</v>
+        <v>3.7404183748547974E-2</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>26</v>
@@ -4862,18 +4864,18 @@
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
-        <v>2110905581936</v>
+        <v>2139912821728</v>
       </c>
       <c r="I11">
         <v>0.4</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" ref="J11">_xll.FI.CURVE.SPOT($I$2,I11)</f>
-        <v>1.0138994732094902E-4</v>
+        <v>3.6778519999290514E-2</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($I$2,I11)</f>
-        <v>9.4441123023019248E-5</v>
+        <v>3.4520470666365488E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
@@ -4891,18 +4893,18 @@
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
-        <v>2110905581776</v>
+        <v>2139912819968</v>
       </c>
       <c r="I12">
         <v>0.5</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" ref="J12">_xll.FI.CURVE.SPOT($I$2,I12)</f>
-        <v>1.0000018246136307E-4</v>
+        <v>3.632691013270551E-2</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($I$2,I12)</f>
-        <v>9.4441123023019248E-5</v>
+        <v>3.4520470666365488E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
@@ -4920,18 +4922,18 @@
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
-        <v>2110905575696</v>
+        <v>2139905529344</v>
       </c>
       <c r="I13">
         <v>0.6</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">_xll.FI.CURVE.SPOT($I$2,I13)</f>
-        <v>9.8982943136249161E-5</v>
+        <v>3.6059207069266165E-2</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($I$2,I13)</f>
-        <v>9.3896746510679631E-5</v>
+        <v>3.4720691752069432E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
@@ -4949,18 +4951,18 @@
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
-        <v>2110905575536</v>
+        <v>2139905528544</v>
       </c>
       <c r="I14">
         <v>0.7</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" ref="J14">_xll.FI.CURVE.SPOT($I$2,I14)</f>
-        <v>9.8256343618310661E-5</v>
+        <v>3.5867990595380914E-2</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($I$2,I14)</f>
-        <v>9.3896746510679631E-5</v>
+        <v>3.4720691752069432E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
@@ -4978,18 +4980,18 @@
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
-        <v>2110905583216</v>
+        <v>2139910659584</v>
       </c>
       <c r="I15">
         <v>0.79999999999999993</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">_xll.FI.CURVE.SPOT($I$2,I15)</f>
-        <v>9.7711393979856768E-5</v>
+        <v>3.5724578239966977E-2</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($I$2,I15)</f>
-        <v>9.3896746510679631E-5</v>
+        <v>3.4720691752069432E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
@@ -5007,18 +5009,18 @@
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
-        <v>2110905588176</v>
+        <v>2139912823808</v>
       </c>
       <c r="I16">
         <v>0.89999999999999991</v>
       </c>
       <c r="J16" cm="1">
         <f t="array" ref="J16">_xll.FI.CURVE.SPOT($I$2,I16)</f>
-        <v>9.7287544261059322E-5</v>
+        <v>3.5613035296867254E-2</v>
       </c>
       <c r="K16" cm="1">
         <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($I$2,I16)</f>
-        <v>9.3896746510679631E-5</v>
+        <v>3.4720691752069432E-2</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.35">
@@ -5027,11 +5029,11 @@
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">_xll.FI.CURVE.SPOT($I$2,I17)</f>
-        <v>9.6948464486021349E-5</v>
+        <v>3.5523800942387468E-2</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($I$2,I17)</f>
-        <v>9.3896746510679631E-5</v>
+        <v>3.4720691752069432E-2</v>
       </c>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.35">
@@ -5040,11 +5042,11 @@
       </c>
       <c r="J18" cm="1">
         <f t="array" ref="J18">_xll.FI.CURVE.SPOT($I$2,I18)</f>
-        <v>2.3173759772428536E-2</v>
+        <v>3.4565988638108697E-2</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($I$2,I18)</f>
-        <v>6.9327382388313569E-2</v>
+        <v>3.2650364029551147E-2</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.35">
@@ -5053,11 +5055,11 @@
       </c>
       <c r="J19" cm="1">
         <f t="array" ref="J19">_xll.FI.CURVE.SPOT($I$2,I19)</f>
-        <v>3.4712165426399794E-2</v>
+        <v>3.4087082485969311E-2</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($I$2,I19)</f>
-        <v>6.9327382388313569E-2</v>
+        <v>3.2650364029551147E-2</v>
       </c>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.35">
@@ -5066,11 +5068,11 @@
       </c>
       <c r="J20" cm="1">
         <f t="array" ref="J20">_xll.FI.CURVE.SPOT($I$2,I20)</f>
-        <v>3.477437710056816E-2</v>
+        <v>3.4271966353096553E-2</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($I$2,I20)</f>
-        <v>3.5023223797241633E-2</v>
+        <v>3.5011501821605513E-2</v>
       </c>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.35">
@@ -5079,11 +5081,11 @@
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">_xll.FI.CURVE.SPOT($I$2,I21)</f>
-        <v>3.4815851550013738E-2</v>
+        <v>3.4395222264514712E-2</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($I$2,I21)</f>
-        <v>3.5023223797241633E-2</v>
+        <v>3.5011501821605513E-2</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.35">
@@ -5092,11 +5094,11 @@
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">_xll.FI.CURVE.SPOT($I$2,I22)</f>
-        <v>3.5344223875980733E-2</v>
+        <v>3.4979007110321814E-2</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($I$2,I22)</f>
-        <v>3.8514457831782707E-2</v>
+        <v>3.8481716185164432E-2</v>
       </c>
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.35">
@@ -5105,11 +5107,11 @@
       </c>
       <c r="J23" cm="1">
         <f t="array" ref="J23">_xll.FI.CURVE.SPOT($I$2,I23)</f>
-        <v>3.5740503120455978E-2</v>
+        <v>3.5416845744677142E-2</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($I$2,I23)</f>
-        <v>3.8514457831782707E-2</v>
+        <v>3.8481716185164432E-2</v>
       </c>
     </row>
     <row r="24" spans="9:11" x14ac:dyDescent="0.35">
@@ -5118,11 +5120,11 @@
       </c>
       <c r="J24" cm="1">
         <f t="array" ref="J24">_xll.FI.CURVE.SPOT($I$2,I24)</f>
-        <v>3.604872031060339E-2</v>
+        <v>3.5757386904731278E-2</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($I$2,I24)</f>
-        <v>3.8514457831782707E-2</v>
+        <v>3.8481716185164432E-2</v>
       </c>
     </row>
     <row r="25" spans="9:11" x14ac:dyDescent="0.35">
@@ -5131,11 +5133,11 @@
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">_xll.FI.CURVE.SPOT($I$2,I25)</f>
-        <v>3.6295294062721327E-2</v>
+        <v>3.6029819832774604E-2</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($I$2,I25)</f>
-        <v>3.8514457831782707E-2</v>
+        <v>3.8481716185164432E-2</v>
       </c>
     </row>
     <row r="26" spans="9:11" x14ac:dyDescent="0.35">
@@ -5144,11 +5146,11 @@
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">_xll.FI.CURVE.SPOT($I$2,I26)</f>
-        <v>3.6945179466388506E-2</v>
+        <v>3.6699769586277319E-2</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($I$2,I26)</f>
-        <v>4.3444033503060267E-2</v>
+        <v>4.3399267121304493E-2</v>
       </c>
     </row>
     <row r="27" spans="9:11" x14ac:dyDescent="0.35">
@@ -5157,11 +5159,11 @@
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">_xll.FI.CURVE.SPOT($I$2,I27)</f>
-        <v>3.7486750636111149E-2</v>
+        <v>3.725806104752958E-2</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($I$2,I27)</f>
-        <v>4.3444033503060267E-2</v>
+        <v>4.3399267121304493E-2</v>
       </c>
     </row>
     <row r="28" spans="9:11" x14ac:dyDescent="0.35">
@@ -5170,11 +5172,11 @@
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">_xll.FI.CURVE.SPOT($I$2,I28)</f>
-        <v>3.7945003164338006E-2</v>
+        <v>3.7730461514743033E-2</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($I$2,I28)</f>
-        <v>4.3444033503060267E-2</v>
+        <v>4.3399267121304493E-2</v>
       </c>
     </row>
     <row r="29" spans="9:11" x14ac:dyDescent="0.35">
@@ -5183,11 +5185,11 @@
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">_xll.FI.CURVE.SPOT($I$2,I29)</f>
-        <v>3.8337791045675314E-2</v>
+        <v>3.8135376200925997E-2</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($I$2,I29)</f>
-        <v>4.3444033503060267E-2</v>
+        <v>4.3399267121304493E-2</v>
       </c>
     </row>
     <row r="30" spans="9:11" x14ac:dyDescent="0.35">
@@ -5196,11 +5198,11 @@
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">_xll.FI.CURVE.SPOT($I$2,I30)</f>
-        <v>3.8882386521731156E-2</v>
+        <v>3.8690866617754754E-2</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($I$2,I30)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="31" spans="9:11" x14ac:dyDescent="0.35">
@@ -5209,11 +5211,11 @@
       </c>
       <c r="J31" cm="1">
         <f t="array" ref="J31">_xll.FI.CURVE.SPOT($I$2,I31)</f>
-        <v>3.9358907563280018E-2</v>
+        <v>3.9176920732479914E-2</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($I$2,I31)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="32" spans="9:11" x14ac:dyDescent="0.35">
@@ -5222,11 +5224,11 @@
       </c>
       <c r="J32" cm="1">
         <f t="array" ref="J32">_xll.FI.CURVE.SPOT($I$2,I32)</f>
-        <v>3.9779367305823134E-2</v>
+        <v>3.9605792010178588E-2</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($I$2,I32)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.35">
@@ -5235,11 +5237,11 @@
       </c>
       <c r="J33" cm="1">
         <f t="array" ref="J33">_xll.FI.CURVE.SPOT($I$2,I33)</f>
-        <v>4.0153109299194786E-2</v>
+        <v>3.9987010923688518E-2</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($I$2,I33)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.35">
@@ -5248,11 +5250,11 @@
       </c>
       <c r="J34" cm="1">
         <f t="array" ref="J34">_xll.FI.CURVE.SPOT($I$2,I34)</f>
-        <v>4.0487510030106269E-2</v>
+        <v>4.0328101530513194E-2</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($I$2,I34)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.35">
@@ -5261,11 +5263,11 @@
       </c>
       <c r="J35" cm="1">
         <f t="array" ref="J35">_xll.FI.CURVE.SPOT($I$2,I35)</f>
-        <v>4.0788470687926605E-2</v>
+        <v>4.06350830766554E-2</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($I$2,I35)</f>
-        <v>4.6506723186512944E-2</v>
+        <v>4.6467732453357329E-2</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.35">
@@ -5274,11 +5276,11 @@
       </c>
       <c r="J36" cm="1">
         <f t="array" ref="J36">_xll.FI.CURVE.SPOT($I$2,I36)</f>
-        <v>4.1426325230369251E-2</v>
+        <v>4.1278260592309116E-2</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($I$2,I36)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.35">
@@ -5287,11 +5289,11 @@
       </c>
       <c r="J37" cm="1">
         <f t="array" ref="J37">_xll.FI.CURVE.SPOT($I$2,I37)</f>
-        <v>4.200619299622621E-2</v>
+        <v>4.1862967424721592E-2</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($I$2,I37)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.35">
@@ -5300,11 +5302,11 @@
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">_xll.FI.CURVE.SPOT($I$2,I38)</f>
-        <v>4.2535637478095606E-2</v>
+        <v>4.2396830184750371E-2</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($I$2,I38)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.35">
@@ -5313,11 +5315,11 @@
       </c>
       <c r="J39" cm="1">
         <f t="array" ref="J39">_xll.FI.CURVE.SPOT($I$2,I39)</f>
-        <v>4.3020961586475885E-2</v>
+        <v>4.2886204381443416E-2</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($I$2,I39)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.35">
@@ -5326,11 +5328,11 @@
       </c>
       <c r="J40" cm="1">
         <f t="array" ref="J40">_xll.FI.CURVE.SPOT($I$2,I40)</f>
-        <v>4.346745976618574E-2</v>
+        <v>4.3336428642401031E-2</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($I$2,I40)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.35">
@@ -5339,11 +5341,11 @@
       </c>
       <c r="J41" cm="1">
         <f t="array" ref="J41">_xll.FI.CURVE.SPOT($I$2,I41)</f>
-        <v>4.3879611932071759E-2</v>
+        <v>4.3752020267900343E-2</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($I$2,I41)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.35">
@@ -5352,11 +5354,11 @@
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">_xll.FI.CURVE.SPOT($I$2,I42)</f>
-        <v>4.4261234307892146E-2</v>
+        <v>4.413682732854788E-2</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($I$2,I42)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.35">
@@ -5365,11 +5367,11 @@
       </c>
       <c r="J43" cm="1">
         <f t="array" ref="J43">_xll.FI.CURVE.SPOT($I$2,I43)</f>
-        <v>4.4615597942582512E-2</v>
+        <v>4.4494148170577723E-2</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($I$2,I43)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.35">
@@ -5378,11 +5380,11 @@
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">_xll.FI.CURVE.SPOT($I$2,I44)</f>
-        <v>4.4945522705914918E-2</v>
+        <v>4.4826826195915853E-2</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($I$2,I44)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.35">
@@ -5391,11 +5393,11 @@
       </c>
       <c r="J45" cm="1">
         <f t="array" ref="J45">_xll.FI.CURVE.SPOT($I$2,I45)</f>
-        <v>4.5253452485025165E-2</v>
+        <v>4.5137325686231439E-2</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($I$2,I45)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.35">
@@ -5404,11 +5406,11 @@
       </c>
       <c r="J46" cm="1">
         <f t="array" ref="J46">_xll.FI.CURVE.SPOT($I$2,I46)</f>
-        <v>4.5541515826773453E-2</v>
+        <v>4.5427792951365377E-2</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($I$2,I46)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.35">
@@ -5417,11 +5419,11 @@
       </c>
       <c r="J47" cm="1">
         <f t="array" ref="J47">_xll.FI.CURVE.SPOT($I$2,I47)</f>
-        <v>4.5811575209662482E-2</v>
+        <v>4.5700106012428444E-2</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($I$2,I47)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.35">
@@ -5430,11 +5432,11 @@
       </c>
       <c r="J48" cm="1">
         <f t="array" ref="J48">_xll.FI.CURVE.SPOT($I$2,I48)</f>
-        <v>4.6065267357224902E-2</v>
+        <v>4.59559152516089E-2</v>
       </c>
       <c r="K48" cm="1">
         <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($I$2,I48)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="49" spans="9:11" x14ac:dyDescent="0.35">
@@ -5443,11 +5445,11 @@
       </c>
       <c r="J49" cm="1">
         <f t="array" ref="J49">_xll.FI.CURVE.SPOT($I$2,I49)</f>
-        <v>4.6304036437283647E-2</v>
+        <v>4.6196676888484632E-2</v>
       </c>
       <c r="K49" cm="1">
         <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($I$2,I49)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="50" spans="9:11" x14ac:dyDescent="0.35">
@@ -5456,11 +5458,11 @@
       </c>
       <c r="J50" cm="1">
         <f t="array" ref="J50">_xll.FI.CURVE.SPOT($I$2,I50)</f>
-        <v>4.6529161569910465E-2</v>
+        <v>4.6423680717538877E-2</v>
       </c>
       <c r="K50" cm="1">
         <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($I$2,I50)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="51" spans="9:11" x14ac:dyDescent="0.35">
@@ -5469,11 +5471,11 @@
       </c>
       <c r="J51" cm="1">
         <f t="array" ref="J51">_xll.FI.CURVE.SPOT($I$2,I51)</f>
-        <v>4.6741779750724681E-2</v>
+        <v>4.6638073222756787E-2</v>
       </c>
       <c r="K51" cm="1">
         <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($I$2,I51)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="52" spans="9:11" x14ac:dyDescent="0.35">
@@ -5482,11 +5484,11 @@
       </c>
       <c r="J52" cm="1">
         <f t="array" ref="J52">_xll.FI.CURVE.SPOT($I$2,I52)</f>
-        <v>4.694290505690029E-2</v>
+        <v>4.6840876943908857E-2</v>
       </c>
       <c r="K52" cm="1">
         <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($I$2,I52)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="53" spans="9:11" x14ac:dyDescent="0.35">
@@ -5495,11 +5497,11 @@
       </c>
       <c r="J53" cm="1">
         <f t="array" ref="J53">_xll.FI.CURVE.SPOT($I$2,I53)</f>
-        <v>4.7133444820645611E-2</v>
+        <v>4.7033006785000303E-2</v>
       </c>
       <c r="K53" cm="1">
         <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($I$2,I53)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="54" spans="9:11" x14ac:dyDescent="0.35">
@@ -5508,11 +5510,11 @@
       </c>
       <c r="J54" cm="1">
         <f t="array" ref="J54">_xll.FI.CURVE.SPOT($I$2,I54)</f>
-        <v>4.7314213314455268E-2</v>
+        <v>4.7215283813728075E-2</v>
       </c>
       <c r="K54" cm="1">
         <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($I$2,I54)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="55" spans="9:11" x14ac:dyDescent="0.35">
@@ -5521,11 +5523,11 @@
       </c>
       <c r="J55" cm="1">
         <f t="array" ref="J55">_xll.FI.CURVE.SPOT($I$2,I55)</f>
-        <v>4.7485943383574439E-2</v>
+        <v>4.7388446991019462E-2</v>
       </c>
       <c r="K55" cm="1">
         <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($I$2,I55)</f>
-        <v>5.418341607922228E-2</v>
+        <v>5.4141810905383524E-2</v>
       </c>
     </row>
     <row r="56" spans="9:11" x14ac:dyDescent="0.35">
@@ -5534,11 +5536,11 @@
       </c>
       <c r="J56" cm="1">
         <f t="array" ref="J56">_xll.FI.CURVE.SPOT($I$2,I56)</f>
-        <v>4.7511833371737464E-2</v>
+        <v>4.7416517109592764E-2</v>
       </c>
       <c r="K56" cm="1">
         <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($I$2,I56)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="57" spans="9:11" x14ac:dyDescent="0.35">
@@ -5547,11 +5549,11 @@
       </c>
       <c r="J57" cm="1">
         <f t="array" ref="J57">_xll.FI.CURVE.SPOT($I$2,I57)</f>
-        <v>4.7536490503321288E-2</v>
+        <v>4.744325055585305E-2</v>
       </c>
       <c r="K57" cm="1">
         <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($I$2,I57)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="58" spans="9:11" x14ac:dyDescent="0.35">
@@ -5560,11 +5562,11 @@
       </c>
       <c r="J58" cm="1">
         <f t="array" ref="J58">_xll.FI.CURVE.SPOT($I$2,I58)</f>
-        <v>4.756000079157563E-2</v>
+        <v>4.746874058600821E-2</v>
       </c>
       <c r="K58" cm="1">
         <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($I$2,I58)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="59" spans="9:11" x14ac:dyDescent="0.35">
@@ -5573,11 +5575,11 @@
       </c>
       <c r="J59" cm="1">
         <f t="array" ref="J59">_xll.FI.CURVE.SPOT($I$2,I59)</f>
-        <v>4.7582442430363872E-2</v>
+        <v>4.7493071978429044E-2</v>
       </c>
       <c r="K59" cm="1">
         <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($I$2,I59)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="60" spans="9:11" x14ac:dyDescent="0.35">
@@ -5586,11 +5588,11 @@
       </c>
       <c r="J60" cm="1">
         <f t="array" ref="J60">_xll.FI.CURVE.SPOT($I$2,I60)</f>
-        <v>4.7603886662983749E-2</v>
+        <v>4.7516321975631173E-2</v>
       </c>
       <c r="K60" cm="1">
         <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($I$2,I60)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="61" spans="9:11" x14ac:dyDescent="0.35">
@@ -5599,11 +5601,11 @@
       </c>
       <c r="J61" cm="1">
         <f t="array" ref="J61">_xll.FI.CURVE.SPOT($I$2,I61)</f>
-        <v>4.7624398537663627E-2</v>
+        <v>4.7538561103389727E-2</v>
       </c>
       <c r="K61" cm="1">
         <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($I$2,I61)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="62" spans="9:11" x14ac:dyDescent="0.35">
@@ -5612,11 +5614,11 @@
       </c>
       <c r="J62" cm="1">
         <f t="array" ref="J62">_xll.FI.CURVE.SPOT($I$2,I62)</f>
-        <v>4.7644037566612452E-2</v>
+        <v>4.7559853885286218E-2</v>
       </c>
       <c r="K62" cm="1">
         <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($I$2,I62)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="63" spans="9:11" x14ac:dyDescent="0.35">
@@ -5625,11 +5627,11 @@
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">_xll.FI.CURVE.SPOT($I$2,I63)</f>
-        <v>4.7662858302688405E-2</v>
+        <v>4.7580259467937029E-2</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($I$2,I63)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="64" spans="9:11" x14ac:dyDescent="0.35">
@@ -5638,11 +5640,11 @@
       </c>
       <c r="J64" cm="1">
         <f t="array" ref="J64">_xll.FI.CURVE.SPOT($I$2,I64)</f>
-        <v>4.7680910845455136E-2</v>
+        <v>4.7599832169663313E-2</v>
       </c>
       <c r="K64" cm="1">
         <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($I$2,I64)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.35">
@@ -5651,11 +5653,11 @@
       </c>
       <c r="J65" cm="1">
         <f t="array" ref="J65">_xll.FI.CURVE.SPOT($I$2,I65)</f>
-        <v>4.7698241286511199E-2</v>
+        <v>4.7618621963320534E-2</v>
       </c>
       <c r="K65" cm="1">
         <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($I$2,I65)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.35">
@@ -5664,11 +5666,11 @@
       </c>
       <c r="J66" cm="1">
         <f t="array" ref="J66">_xll.FI.CURVE.SPOT($I$2,I66)</f>
-        <v>4.7714892102427804E-2</v>
+        <v>4.7636674902324545E-2</v>
       </c>
       <c r="K66" cm="1">
         <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($I$2,I66)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.35">
@@ -5677,11 +5679,11 @@
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">_xll.FI.CURVE.SPOT($I$2,I67)</f>
-        <v>4.773090250234762E-2</v>
+        <v>4.7654033497520704E-2</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($I$2,I67)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.35">
@@ -5690,11 +5692,11 @@
       </c>
       <c r="J68" cm="1">
         <f t="array" ref="J68">_xll.FI.CURVE.SPOT($I$2,I68)</f>
-        <v>4.7746308736232722E-2</v>
+        <v>4.767073705138871E-2</v>
       </c>
       <c r="K68" cm="1">
         <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($I$2,I68)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.35">
@@ -5703,11 +5705,11 @@
       </c>
       <c r="J69" cm="1">
         <f t="array" ref="J69">_xll.FI.CURVE.SPOT($I$2,I69)</f>
-        <v>4.7761144368862835E-2</v>
+        <v>4.7686821955113451E-2</v>
       </c>
       <c r="K69" cm="1">
         <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($I$2,I69)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.35">
@@ -5716,11 +5718,11 @@
       </c>
       <c r="J70" cm="1">
         <f t="array" ref="J70">_xll.FI.CURVE.SPOT($I$2,I70)</f>
-        <v>4.7775440523942739E-2</v>
+        <v>4.7702321953248202E-2</v>
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($I$2,I70)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.35">
@@ -5729,11 +5731,11 @@
       </c>
       <c r="J71" cm="1">
         <f t="array" ref="J71">_xll.FI.CURVE.SPOT($I$2,I71)</f>
-        <v>4.7789226102055514E-2</v>
+        <v>4.7717268380021001E-2</v>
       </c>
       <c r="K71" cm="1">
         <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($I$2,I71)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.35">
@@ -5742,11 +5744,11 @@
       </c>
       <c r="J72" cm="1">
         <f t="array" ref="J72">_xll.FI.CURVE.SPOT($I$2,I72)</f>
-        <v>4.7802527975673109E-2</v>
+        <v>4.7731690370766675E-2</v>
       </c>
       <c r="K72" cm="1">
         <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($I$2,I72)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.35">
@@ -5755,11 +5757,11 @@
       </c>
       <c r="J73" cm="1">
         <f t="array" ref="J73">_xll.FI.CURVE.SPOT($I$2,I73)</f>
-        <v>4.7815371163993543E-2</v>
+        <v>4.7745615051486646E-2</v>
       </c>
       <c r="K73" cm="1">
         <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($I$2,I73)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.35">
@@ -5768,11 +5770,11 @@
       </c>
       <c r="J74" cm="1">
         <f t="array" ref="J74">_xll.FI.CURVE.SPOT($I$2,I74)</f>
-        <v>4.7827778989998029E-2</v>
+        <v>4.7759067709131367E-2</v>
       </c>
       <c r="K74" cm="1">
         <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($I$2,I74)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.35">
@@ -5781,11 +5783,11 @@
       </c>
       <c r="J75" cm="1">
         <f t="array" ref="J75">_xll.FI.CURVE.SPOT($I$2,I75)</f>
-        <v>4.7839773221802363E-2</v>
+        <v>4.777207194485459E-2</v>
       </c>
       <c r="K75" cm="1">
         <f t="array" ref="K75">_xll.FI.CURVE.FORWARD($I$2,I75)</f>
-        <v>4.8547432898258212E-2</v>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CA276-EBE8-4A77-89B4-10A5DC3379F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFB4F76-2FAB-457C-9D99-618250366F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="2088" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="3396" yWindow="1200" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -4245,7 +4245,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="11" cm="1">
         <f t="array" ref="B5">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
-        <v>2139811972544</v>
+        <v>2610852776384</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
@@ -4313,7 +4313,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="12" cm="1">
         <f t="array" ref="B10">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B8,B9)</f>
-        <v>2139811973120</v>
+        <v>2611233444832</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>34</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B13" s="12" cm="1">
         <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(2,0.5,2)</f>
-        <v>2139912826208</v>
+        <v>2611234090912</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>35</v>
@@ -4454,7 +4454,7 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" cm="1">
         <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
-        <v>2139811976864</v>
+        <v>2611233442240</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -4504,7 +4504,7 @@
   <dimension ref="B2:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(_xlfn.ANCHORARRAY(G3),_xlfn.ANCHORARRAY(G4))</f>
-        <v>2139811979168</v>
+        <v>2610852777536</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -4557,50 +4557,50 @@
       </c>
       <c r="F3" s="6" cm="1">
         <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
-        <v>2139811973984</v>
+        <v>2610852776672</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3:T3">TRANSPOSE(F3:F16)</f>
-        <v>2139811973984</v>
+        <v>2610852776672</v>
       </c>
       <c r="H3">
-        <v>2139811974416</v>
+        <v>2611233441376</v>
       </c>
       <c r="I3">
-        <v>2139811977440</v>
+        <v>2610852778544</v>
       </c>
       <c r="J3">
-        <v>2139811975856</v>
+        <v>2611233433456</v>
       </c>
       <c r="K3">
-        <v>2139811974992</v>
+        <v>2611233433168</v>
       </c>
       <c r="L3">
-        <v>2139811977152</v>
+        <v>2611233441952</v>
       </c>
       <c r="M3">
-        <v>2139811976000</v>
+        <v>2611233434752</v>
       </c>
       <c r="N3">
-        <v>2139912825888</v>
+        <v>2611234091552</v>
       </c>
       <c r="O3">
-        <v>2139912821728</v>
+        <v>2611234089952</v>
       </c>
       <c r="P3">
-        <v>2139912819968</v>
+        <v>2611234087552</v>
       </c>
       <c r="Q3">
-        <v>2139905529344</v>
+        <v>2611234086272</v>
       </c>
       <c r="R3">
-        <v>2139905528544</v>
+        <v>2611234090752</v>
       </c>
       <c r="S3">
-        <v>2139910659584</v>
+        <v>2611234092992</v>
       </c>
       <c r="T3">
-        <v>2139912823808</v>
+        <v>2611234091712</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
-        <v>2139811974416</v>
+        <v>2611233441376</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4:T4">TRANSPOSE(E3:E16)</f>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
-        <v>2139811977440</v>
+        <v>2610852778544</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
-        <v>2139811975856</v>
+        <v>2611233433456</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>23</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
-        <v>2139811974992</v>
+        <v>2611233433168</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
-        <v>2139811977152</v>
+        <v>2611233441952</v>
       </c>
       <c r="H8">
         <v>0.5</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
-        <v>2139811976000</v>
+        <v>2611233434752</v>
       </c>
       <c r="I9">
         <v>0.2</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="F10" s="6" cm="1">
         <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
-        <v>2139912825888</v>
+        <v>2611234091552</v>
       </c>
       <c r="I10">
         <v>0.30000000000000004</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
-        <v>2139912821728</v>
+        <v>2611234089952</v>
       </c>
       <c r="I11">
         <v>0.4</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
-        <v>2139912819968</v>
+        <v>2611234087552</v>
       </c>
       <c r="I12">
         <v>0.5</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
-        <v>2139905529344</v>
+        <v>2611234086272</v>
       </c>
       <c r="I13">
         <v>0.6</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
-        <v>2139905528544</v>
+        <v>2611234090752</v>
       </c>
       <c r="I14">
         <v>0.7</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
-        <v>2139910659584</v>
+        <v>2611234092992</v>
       </c>
       <c r="I15">
         <v>0.79999999999999993</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
-        <v>2139912823808</v>
+        <v>2611234091712</v>
       </c>
       <c r="I16">
         <v>0.89999999999999991</v>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27228\source\repos\xll_ml1\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47BFC97-23F1-4A1C-BE88-5F9ED7B2F361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -189,14 +186,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,21 +201,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="63"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,6 +225,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -284,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,14 +705,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +750,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +798,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +845,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +892,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +939,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +986,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2299,6 +2303,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A540E354-8D5C-4BE3-BEEC-45C6D363E13F}"/>
   </hyperlinks>
@@ -2311,20 +2316,21 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:2">
       <c r="B4" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2334,17 +2340,18 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2355,9 +2362,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:12">
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:12">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:12">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2497,7 +2504,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2570,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2683,297 +2690,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="9:9">
       <c r="I17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="9:9">
       <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="9:9">
       <c r="I19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="9:9">
       <c r="I20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="9:9">
       <c r="I21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="9:9">
       <c r="I22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="9:9">
       <c r="I23">
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="9:9">
       <c r="I24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="9:9">
       <c r="I25">
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="9:9">
       <c r="I26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="9:9">
       <c r="I27">
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="9:9">
       <c r="I28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="9:9">
       <c r="I29">
         <v>7.5</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="9:9">
       <c r="I30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="9:9">
       <c r="I31">
         <v>8.5</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="9:9">
       <c r="I32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="9:9">
       <c r="I33">
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="9:9">
       <c r="I34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="9:9">
       <c r="I35">
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="9:9">
       <c r="I36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="9:9">
       <c r="I37">
         <v>11.5</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="9:9">
       <c r="I38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="9:9">
       <c r="I39">
         <v>12.5</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="9:9">
       <c r="I40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="9:9">
       <c r="I41">
         <v>13.5</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="9:9">
       <c r="I42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="9:9">
       <c r="I43">
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="9:9">
       <c r="I44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="9:9">
       <c r="I45">
         <v>15.5</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="9:9">
       <c r="I46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="9:9">
       <c r="I47">
         <v>16.5</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="9:9">
       <c r="I48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="9:9">
       <c r="I49">
         <v>17.5</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="9:9">
       <c r="I50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="9:9">
       <c r="I51">
         <v>18.5</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="9:9">
       <c r="I52">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="9:9">
       <c r="I53">
         <v>19.5</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="9:9">
       <c r="I54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="9:9">
       <c r="I55">
         <v>20.5</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="9:9">
       <c r="I56">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="9:9">
       <c r="I57">
         <v>21.5</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="9:9">
       <c r="I58">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="9:9">
       <c r="I59">
         <v>22.5</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="9:9">
       <c r="I60">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="9:9">
       <c r="I61">
         <v>23.5</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="9:9">
       <c r="I62">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="9:9">
       <c r="I63">
         <v>24.5</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="9:9">
       <c r="I64">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:9">
       <c r="I65">
         <v>25.5</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:9">
       <c r="I66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:9">
       <c r="I67">
         <v>26.5</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:9">
       <c r="I68">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:9">
       <c r="I69">
         <v>27.5</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:9">
       <c r="I70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:9">
       <c r="I71">
         <v>28.5</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:9">
       <c r="I72">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:9">
       <c r="I73">
         <v>29.5</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:9">
       <c r="I74">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoeyt\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE48A29-5647-4F78-8638-C3D216262643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -151,22 +148,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
-  </si>
-  <si>
-    <t>use \fi.ucurve.bootstrap</t>
   </si>
   <si>
     <t>t</t>
@@ -183,20 +168,44 @@
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
   </si>
+  <si>
+    <t>\instrument</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\pwflat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwflat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,21 +213,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="63"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,6 +237,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,11 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,11 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -376,6 +395,1818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$J$6:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.035142317659301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0319536825936958E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0277943042752876E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0138994732094902E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000018246136307E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8982943136249161E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8256343618310661E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7711393979856768E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7287544261059322E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6948464486021349E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3372855440415508E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5010808928380252E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5074658708311578E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.511722522826579E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5655466868940493E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.605914809944652E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6373122389840098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.662430182215496E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7286927375230421E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.783911533612664E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8306351303038826E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8706839274677836E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9262948462946826E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9749544002682186E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0178893008331031E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0560536568907783E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0902007123108042E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1209330621888265E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.186315643180373E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2457543531726878E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3000244796874101E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3497720956592399E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3955399023533223E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4377871085324753E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4769048920316912E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5132285481381061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5470471245130442E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5786111291296526E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6081387463516421E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6358208874972565E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6618253231188941E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6863000860569062E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7093762911127462E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7311704847765951E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7517866139180735E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7713176836310538E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7898471600254192E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.807450162600066E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8101032464489109E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8126299929716204E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8150392164002506E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8173389296730339E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8195364334670268E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8216383936178026E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8236509086557793E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8255795689005072E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.82742950831892E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8292054501605959E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8309117472241668E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8325524174776008E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.834131175645999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8356514612896417E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8371164638189704E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8385291448293948E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.839892258085067E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8412083674353713E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8424798629093942E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8437089752009485E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D634-43E5-B4BE-463DE60F43F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$K$6:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0539167217309795E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.011128615701034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0278224795759079E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D634-43E5-B4BE-463DE60F43F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="676829264"/>
+        <c:axId val="676824944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="676829264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676824944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="676824944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676829264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9854EBD1-202D-B77B-A1D1-1AE9EEF59F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,14 +2532,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +2577,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +2625,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +2672,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +2719,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +2766,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +2813,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +2860,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +2907,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +2954,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +3001,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +3048,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +3095,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +3142,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +3189,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +3236,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +3283,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +3330,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +3377,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +3424,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +3471,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +3518,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +3565,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +3612,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +3659,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +3706,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +3753,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +3800,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +3847,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +3894,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +3941,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +3988,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +4035,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +4082,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2299,6 +4130,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A540E354-8D5C-4BE3-BEEC-45C6D363E13F}"/>
   </hyperlinks>
@@ -2308,43 +4140,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.7654247439092623</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:E4" ca="1" si="0">RAND()</f>
+        <v>0.24041318541006107</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64244408364331895</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9698169575228982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
+        <v>1795787373216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6:E7" ca="1">_xll.FI.INSTRUMENT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f ca="1"/>
+        <v>0.7654247439092623</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>0.24041318541006107</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.64244408364331895</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>0.9698169575228982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" cm="1">
+        <f t="array" ref="B9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(3,1)</f>
+        <v>2606726455936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10:B11">_xll.FI.INSTRUMENT(B9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" cm="1">
+        <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(3,0.05,2)</f>
+        <v>2606824052320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:G15">_xll.FI.INSTRUMENT(B13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.0249999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" cm="1">
+        <f t="array" ref="B6">_xll.\FI.CURVE.PWFLAT(B4:D4,B5:D5)</f>
+        <v>2606733183648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:D8">_xll.FI.CURVE.PWFLAT(B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2353,11 +4397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2371,13 +4421,14 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" cm="1">
+        <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3:F16,E3:E16)</f>
+        <v>1795784657328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2392,13 +4443,14 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="6" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>1795715730416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2411,14 +4463,15 @@
         <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
+        <v>1795715743520</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2433,20 +4486,21 @@
         <f t="shared" si="0"/>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
+        <v>1795715750000</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,8 +4515,9 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>1795715746976</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,8 +4526,16 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($H$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($H$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2487,8 +4550,9 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>1795715748560</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2496,8 +4560,16 @@
       <c r="I7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($H$2,I7)</f>
+        <v>1.035142317659301E-4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($H$2,I7)</f>
+        <v>1.0539167217309795E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2512,14 +4584,23 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>1795715750144</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($H$2,I8)</f>
+        <v>1.0319536825936958E-4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($H$2,I8)</f>
+        <v>1.011128615701034E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2533,17 +4614,26 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>1795715731136</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($H$2,I9)</f>
+        <v>1.0277943042752876E-4</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($H$2,I9)</f>
+        <v>1.0278224795759079E-4</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +4646,23 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="6" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,2)</f>
+        <v>1795714807744</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($H$2,I10)</f>
+        <v>1.0138994732094902E-4</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($H$2,I10)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2576,14 +4675,23 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,2)</f>
+        <v>1795714811264</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($H$2,I11)</f>
+        <v>1.0000018246136307E-4</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($H$2,I11)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2596,14 +4704,23 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,2)</f>
+        <v>1795714805824</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($H$2,I12)</f>
+        <v>9.8982943136249161E-5</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($H$2,I12)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +4733,23 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,2)</f>
+        <v>1795714817504</v>
       </c>
       <c r="I13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($H$2,I13)</f>
+        <v>9.8256343618310661E-5</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($H$2,I13)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2636,14 +4762,23 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,2)</f>
+        <v>1795714801824</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($H$2,I14)</f>
+        <v>9.7711393979856768E-5</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($H$2,I14)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2656,14 +4791,23 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,2)</f>
+        <v>1795714814304</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($H$2,I15)</f>
+        <v>9.7287544261059322E-5</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($H$2,I15)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,308 +4820,783 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,2)</f>
+        <v>1795714806144</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($H$2,I16)</f>
+        <v>9.6948464486021349E-5</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($H$2,I16)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($H$2,I17)</f>
+        <v>2.3372855440415508E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($H$2,I17)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($H$2,I18)</f>
+        <v>3.5010808928380252E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($H$2,I18)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($H$2,I19)</f>
+        <v>3.5074658708311578E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($H$2,I19)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($H$2,I20)</f>
+        <v>3.511722522826579E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($H$2,I20)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($H$2,I21)</f>
+        <v>3.5655466868940493E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($H$2,I21)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($H$2,I22)</f>
+        <v>3.605914809944652E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($H$2,I22)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($H$2,I23)</f>
+        <v>3.6373122389840098E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($H$2,I23)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($H$2,I24)</f>
+        <v>3.662430182215496E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($H$2,I24)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($H$2,I25)</f>
+        <v>3.7286927375230421E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($H$2,I25)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($H$2,I26)</f>
+        <v>3.783911533612664E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($H$2,I26)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($H$2,I27)</f>
+        <v>3.8306351303038826E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($H$2,I27)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($H$2,I28)</f>
+        <v>3.8706839274677836E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($H$2,I28)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($H$2,I29)</f>
+        <v>3.9262948462946826E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($H$2,I29)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($H$2,I30)</f>
+        <v>3.9749544002682186E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($H$2,I30)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($H$2,I31)</f>
+        <v>4.0178893008331031E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($H$2,I31)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($H$2,I32)</f>
+        <v>4.0560536568907783E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($H$2,I32)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($H$2,I33)</f>
+        <v>4.0902007123108042E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($H$2,I33)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($H$2,I34)</f>
+        <v>4.1209330621888265E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($H$2,I34)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($H$2,I35)</f>
+        <v>4.186315643180373E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($H$2,I35)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($H$2,I36)</f>
+        <v>4.2457543531726878E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($H$2,I36)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($H$2,I37)</f>
+        <v>4.3000244796874101E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($H$2,I37)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($H$2,I38)</f>
+        <v>4.3497720956592399E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($H$2,I38)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($H$2,I39)</f>
+        <v>4.3955399023533223E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($H$2,I39)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($H$2,I40)</f>
+        <v>4.4377871085324753E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($H$2,I40)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($H$2,I41)</f>
+        <v>4.4769048920316912E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($H$2,I41)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($H$2,I42)</f>
+        <v>4.5132285481381061E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($H$2,I42)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($H$2,I43)</f>
+        <v>4.5470471245130442E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($H$2,I43)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($H$2,I44)</f>
+        <v>4.5786111291296526E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($H$2,I44)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($H$2,I45)</f>
+        <v>4.6081387463516421E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($H$2,I45)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($H$2,I46)</f>
+        <v>4.6358208874972565E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($H$2,I46)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($H$2,I47)</f>
+        <v>4.6618253231188941E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($H$2,I47)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($H$2,I48)</f>
+        <v>4.6863000860569062E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($H$2,I48)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($H$2,I49)</f>
+        <v>4.7093762911127462E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($H$2,I49)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($H$2,I50)</f>
+        <v>4.7311704847765951E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($H$2,I50)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($H$2,I51)</f>
+        <v>4.7517866139180735E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($H$2,I51)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($H$2,I52)</f>
+        <v>4.7713176836310538E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($H$2,I52)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($H$2,I53)</f>
+        <v>4.7898471600254192E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($H$2,I53)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($H$2,I54)</f>
+        <v>4.807450162600066E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($H$2,I54)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($H$2,I55)</f>
+        <v>4.8101032464489109E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($H$2,I55)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($H$2,I56)</f>
+        <v>4.8126299929716204E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($H$2,I56)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($H$2,I57)</f>
+        <v>4.8150392164002506E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($H$2,I57)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($H$2,I58)</f>
+        <v>4.8173389296730339E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($H$2,I58)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($H$2,I59)</f>
+        <v>4.8195364334670268E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($H$2,I59)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($H$2,I60)</f>
+        <v>4.8216383936178026E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($H$2,I60)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($H$2,I61)</f>
+        <v>4.8236509086557793E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($H$2,I61)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($H$2,I62)</f>
+        <v>4.8255795689005072E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($H$2,I62)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($H$2,I63)</f>
+        <v>4.82742950831892E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($H$2,I63)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($H$2,I64)</f>
+        <v>4.8292054501605959E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($H$2,I64)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($H$2,I65)</f>
+        <v>4.8309117472241668E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($H$2,I65)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($H$2,I66)</f>
+        <v>4.8325524174776008E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($H$2,I66)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($H$2,I67)</f>
+        <v>4.834131175645999E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($H$2,I67)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($H$2,I68)</f>
+        <v>4.8356514612896417E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($H$2,I68)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($H$2,I69)</f>
+        <v>4.8371164638189704E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($H$2,I69)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($H$2,I70)</f>
+        <v>4.8385291448293948E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($H$2,I70)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($H$2,I71)</f>
+        <v>4.839892258085067E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($H$2,I71)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($H$2,I72)</f>
+        <v>4.8412083674353713E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($H$2,I72)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($H$2,I73)</f>
+        <v>4.8424798629093942E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($H$2,I73)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74">
         <v>30</v>
       </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($H$2,I74)</f>
+        <v>4.8437089752009485E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($H$2,I74)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaan\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E626A3-4729-48F2-AAFC-D26F20F6FE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Curve" sheetId="3" r:id="rId3"/>
     <sheet name="Bootstrap" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Bootstrap!$I$6:$I$74</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Bootstrap!$J$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Bootstrap!$J$6:$J$74</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Bootstrap!$K$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Bootstrap!$K$6:$K$74</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Bootstrap!$I$6:$I$74</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Bootstrap!$J$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Bootstrap!$J$6:$J$74</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Bootstrap!$K$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Bootstrap!$K$6:$K$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +46,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -151,19 +161,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
   </si>
   <si>
     <t>use \fi.ucurve.bootstrap</t>
@@ -183,6 +184,23 @@
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
   </si>
+  <si>
+    <t>\FI.INSTRUMENT</t>
+  </si>
+  <si>
+    <t>FI.INSTRUMENT</t>
+  </si>
+  <si>
+    <t>ZERO_COUPON_BOND</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOND</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWFLAT</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -275,7 +293,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -290,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Handle" xfId="3" xr:uid="{FB5D0E3F-B7C2-471A-97B4-EF18ADDF021D}"/>
@@ -376,6 +395,1764 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0438956627441943E-2"/>
+          <c:y val="8.9188747389776196E-2"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.71278543307086617"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$J$6:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.035142317659301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0319536825936958E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0277943042752876E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0138994732094902E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000018246136307E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8982943136249161E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8256343618310661E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7711393979856768E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7287544261059322E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6948464486021349E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3372855440415508E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5010808928380252E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5074658708311578E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.511722522826579E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5655466868940493E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.605914809944652E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6373122389840098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.662430182215496E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7286927375230421E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.783911533612664E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8306351303038826E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8706839274677836E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9262948462946826E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9749544002682186E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0178893008331031E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0560536568907783E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0902007123108042E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1209330621888265E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.186315643180373E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2457543531726878E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3000244796874101E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3497720956592399E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3955399023533223E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4377871085324753E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4769048920316912E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5132285481381061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5470471245130442E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5786111291296526E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6081387463516421E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6358208874972565E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6618253231188941E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6863000860569062E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7093762911127462E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7311704847765951E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7517866139180735E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7713176836310538E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7898471600254192E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.807450162600066E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8101032464489109E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8126299929716204E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8150392164002506E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8173389296730339E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8195364334670268E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8216383936178026E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8236509086557793E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8255795689005072E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.82742950831892E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8292054501605959E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8309117472241668E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8325524174776008E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.834131175645999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8356514612896417E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8371164638189704E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8385291448293948E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.839892258085067E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8412083674353713E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8424798629093942E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8437089752009485E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51A8-4D71-AA25-6EC31F3C947F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$K$6:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>1.0313874368449654E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0539167217309795E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.011128615701034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0278224795759079E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4441123023019248E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3896746510679631E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9924669392274486E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5330057828036873E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8884916712988708E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3913182905985046E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7048477098712599E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4939672630113061E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9162266004027157E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51A8-4D71-AA25-6EC31F3C947F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381258255"/>
+        <c:axId val="381258735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381258255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381258735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381258735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381258255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89BF55B-5A68-CB0F-C5CE-83FEB302A5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,18 +2474,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +2523,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +2571,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +2618,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +2665,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +2712,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +2759,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +2806,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +2853,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +2900,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +2947,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +2994,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +3041,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +3088,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +3135,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +3182,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +3229,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +3276,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +3323,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +3370,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +3417,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +3464,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +3511,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +3558,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +3605,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +3652,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +3699,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +3746,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +3793,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +3840,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +3887,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +3934,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +3981,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +4028,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2308,21 +4085,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="2:6">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.38818929991326401</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.52107813983880058</v>
+      </c>
+      <c r="D4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.5241339886167693</v>
+      </c>
+      <c r="E4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.2788748804076201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
+        <v>2244559982128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" aca="1" ref="C9:F10" ca="1">_xll.FI.INSTRUMENT(C7)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10">
+        <f ca="1"/>
+        <v>0.38818929991326401</v>
+      </c>
+      <c r="D10">
+        <f ca="1"/>
+        <v>0.52107813983880058</v>
+      </c>
+      <c r="E10">
+        <f ca="1"/>
+        <v>0.5241339886167693</v>
+      </c>
+      <c r="F10">
+        <f ca="1"/>
+        <v>0.2788748804076201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(1.5,1)</f>
+        <v>2244268693408</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.\FI.INSTRUMENT.BOND(5,0.1,4)</f>
+        <v>2244253294128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,17 +4206,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
+        <f ca="1">RAND()</f>
+        <v>0.70973594985944077</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RAND()</f>
+        <v>0.11213071900276095</v>
+      </c>
+      <c r="D4">
+        <f ca="1">RAND()</f>
+        <v>0.87901155834634315</v>
+      </c>
+      <c r="E4">
+        <f ca="1">RAND()</f>
+        <v>0.72304486478213625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
+        <v>2244559985440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" aca="1" ref="B8:E9" ca="1">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <f ca="1"/>
+        <v>0.70973594985944077</v>
+      </c>
+      <c r="C9">
+        <f ca="1"/>
+        <v>0.11213071900276095</v>
+      </c>
+      <c r="D9">
+        <f ca="1"/>
+        <v>0.87901155834634315</v>
+      </c>
+      <c r="E9">
+        <f ca="1"/>
+        <v>0.72304486478213625</v>
       </c>
     </row>
   </sheetData>
@@ -2353,11 +4311,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2371,13 +4335,17 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" cm="1">
+        <f t="array" ref="J2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3:F16,E3:E16)</f>
+        <v>2244254187312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2392,13 +4360,14 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>2244491769120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2411,14 +4380,15 @@
         <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="8" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4,1)</f>
+        <v>2244263327280</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2433,20 +4403,21 @@
         <f t="shared" si="0"/>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" s="8" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5,1)</f>
+        <v>2244490633840</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,18 +4432,27 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" s="8" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>2244491733264</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6" cm="1">
+      <c r="I6" s="5" cm="1">
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($J$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($J$2,I6)</f>
+        <v>1.0313874368449654E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2487,17 +4467,26 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" s="8" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>2244491736000</v>
       </c>
       <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($J$2,I7)</f>
+        <v>1.035142317659301E-4</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($J$2,I7)</f>
+        <v>1.0539167217309795E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2512,14 +4501,23 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>2244491736288</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($J$2,I8)</f>
+        <v>1.0319536825936958E-4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($J$2,I8)</f>
+        <v>1.011128615701034E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2533,17 +4531,26 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="8" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>2244491765088</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($J$2,I9)</f>
+        <v>1.0277943042752876E-4</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($J$2,I9)</f>
+        <v>1.0278224795759079E-4</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +4563,23 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="8" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,2)</f>
+        <v>2244487345344</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($J$2,I10)</f>
+        <v>1.0138994732094902E-4</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($J$2,I10)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2576,14 +4592,23 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="8" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,2)</f>
+        <v>2245862914592</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($J$2,I11)</f>
+        <v>1.0000018246136307E-4</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($J$2,I11)</f>
+        <v>9.4441123023019248E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2596,14 +4621,23 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="8" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,2)</f>
+        <v>2245862913312</v>
+      </c>
+      <c r="I12" s="5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($J$2,I12)</f>
+        <v>9.8982943136249161E-5</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($J$2,I12)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +4650,23 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13">
+      <c r="F13" s="8" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,2)</f>
+        <v>2245862913632</v>
+      </c>
+      <c r="I13" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($J$2,I13)</f>
+        <v>9.8256343618310661E-5</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($J$2,I13)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2636,14 +4679,23 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14">
+      <c r="F14" s="8" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,2)</f>
+        <v>2245862921312</v>
+      </c>
+      <c r="I14" s="5">
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($J$2,I14)</f>
+        <v>9.7711393979856768E-5</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($J$2,I14)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2656,14 +4708,23 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15">
+      <c r="F15" s="8" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,2)</f>
+        <v>2245862914112</v>
+      </c>
+      <c r="I15" s="5">
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($J$2,I15)</f>
+        <v>9.7287544261059322E-5</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($J$2,I15)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,301 +4737,774 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,2)</f>
+        <v>2245862914912</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($J$2,I16)</f>
+        <v>9.6948464486021349E-5</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($J$2,I16)</f>
+        <v>9.3896746510679631E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($J$2,I17)</f>
+        <v>2.3372855440415508E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($J$2,I17)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($J$2,I18)</f>
+        <v>3.5010808928380252E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($J$2,I18)</f>
+        <v>6.9924669392274486E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($J$2,I19)</f>
+        <v>3.5074658708311578E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($J$2,I19)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11">
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($J$2,I20)</f>
+        <v>3.511722522826579E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($J$2,I20)</f>
+        <v>3.5330057828036873E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11">
+      <c r="I21" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($J$2,I21)</f>
+        <v>3.5655466868940493E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($J$2,I21)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11">
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($J$2,I22)</f>
+        <v>3.605914809944652E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($J$2,I22)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($J$2,I23)</f>
+        <v>3.6373122389840098E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($J$2,I23)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($J$2,I24)</f>
+        <v>3.662430182215496E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($J$2,I24)</f>
+        <v>3.8884916712988708E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($J$2,I25)</f>
+        <v>3.7286927375230421E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($J$2,I25)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="5">
+        <v>6</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($J$2,I26)</f>
+        <v>3.783911533612664E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($J$2,I26)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($J$2,I27)</f>
+        <v>3.8306351303038826E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($J$2,I27)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="5">
+        <v>7</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($J$2,I28)</f>
+        <v>3.8706839274677836E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($J$2,I28)</f>
+        <v>4.3913182905985046E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($J$2,I29)</f>
+        <v>3.9262948462946826E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($J$2,I29)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11">
+      <c r="I30" s="5">
+        <v>8</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($J$2,I30)</f>
+        <v>3.9749544002682186E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($J$2,I30)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11">
+      <c r="I31" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($J$2,I31)</f>
+        <v>4.0178893008331031E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($J$2,I31)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11">
+      <c r="I32" s="5">
+        <v>9</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($J$2,I32)</f>
+        <v>4.0560536568907783E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($J$2,I32)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($J$2,I33)</f>
+        <v>4.0902007123108042E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($J$2,I33)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="5">
+        <v>10</v>
+      </c>
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($J$2,I34)</f>
+        <v>4.1209330621888265E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($J$2,I34)</f>
+        <v>4.7048477098712599E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($J$2,I35)</f>
+        <v>4.186315643180373E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($J$2,I35)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="5">
+        <v>11</v>
+      </c>
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($J$2,I36)</f>
+        <v>4.2457543531726878E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($J$2,I36)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($J$2,I37)</f>
+        <v>4.3000244796874101E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($J$2,I37)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="5">
+        <v>12</v>
+      </c>
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($J$2,I38)</f>
+        <v>4.3497720956592399E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($J$2,I38)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($J$2,I39)</f>
+        <v>4.3955399023533223E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($J$2,I39)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="5">
+        <v>13</v>
+      </c>
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($J$2,I40)</f>
+        <v>4.4377871085324753E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($J$2,I40)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($J$2,I41)</f>
+        <v>4.4769048920316912E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($J$2,I41)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="5">
+        <v>14</v>
+      </c>
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($J$2,I42)</f>
+        <v>4.5132285481381061E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($J$2,I42)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($J$2,I43)</f>
+        <v>4.5470471245130442E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($J$2,I43)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44" s="5">
+        <v>15</v>
+      </c>
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($J$2,I44)</f>
+        <v>4.5786111291296526E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($J$2,I44)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($J$2,I45)</f>
+        <v>4.6081387463516421E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($J$2,I45)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46" s="5">
+        <v>16</v>
+      </c>
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($J$2,I46)</f>
+        <v>4.6358208874972565E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($J$2,I46)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($J$2,I47)</f>
+        <v>4.6618253231188941E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($J$2,I47)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11">
+      <c r="I48" s="5">
+        <v>17</v>
+      </c>
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($J$2,I48)</f>
+        <v>4.6863000860569062E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($J$2,I48)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11">
+      <c r="I49" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($J$2,I49)</f>
+        <v>4.7093762911127462E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($J$2,I49)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50" s="5">
+        <v>18</v>
+      </c>
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($J$2,I50)</f>
+        <v>4.7311704847765951E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($J$2,I50)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($J$2,I51)</f>
+        <v>4.7517866139180735E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($J$2,I51)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11">
+      <c r="I52" s="5">
+        <v>19</v>
+      </c>
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($J$2,I52)</f>
+        <v>4.7713176836310538E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($J$2,I52)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11">
+      <c r="I53" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($J$2,I53)</f>
+        <v>4.7898471600254192E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($J$2,I53)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11">
+      <c r="I54" s="5">
+        <v>20</v>
+      </c>
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($J$2,I54)</f>
+        <v>4.807450162600066E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($J$2,I54)</f>
+        <v>5.4939672630113061E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($J$2,I55)</f>
+        <v>4.8101032464489109E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($J$2,I55)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56" s="5">
         <v>21</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I23">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I25">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I27">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I29">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I31">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I33">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I35">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I37">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I39">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I41">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I43">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I45">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I47">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I48">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I49">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I52">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I53">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I55">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I56">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I57">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($J$2,I56)</f>
+        <v>4.8126299929716204E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($J$2,I56)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57" s="5">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I58">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($J$2,I57)</f>
+        <v>4.8150392164002506E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($J$2,I57)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I59">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($J$2,I58)</f>
+        <v>4.8173389296730339E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($J$2,I58)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
+      <c r="I59" s="5">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I60">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($J$2,I59)</f>
+        <v>4.8195364334670268E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($J$2,I59)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11">
+      <c r="I60" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I61">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($J$2,I60)</f>
+        <v>4.8216383936178026E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($J$2,I60)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11">
+      <c r="I61" s="5">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I62">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($J$2,I61)</f>
+        <v>4.8236509086557793E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($J$2,I61)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11">
+      <c r="I62" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I63">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($J$2,I62)</f>
+        <v>4.8255795689005072E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($J$2,I62)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63" s="5">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I64">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($J$2,I63)</f>
+        <v>4.82742950831892E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($J$2,I63)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11">
+      <c r="I64" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I65">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($J$2,I64)</f>
+        <v>4.8292054501605959E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($J$2,I64)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11">
+      <c r="I65" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I66">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($J$2,I65)</f>
+        <v>4.8309117472241668E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($J$2,I65)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11">
+      <c r="I66" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I67">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($J$2,I66)</f>
+        <v>4.8325524174776008E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($J$2,I66)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11">
+      <c r="I67" s="5">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I68">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($J$2,I67)</f>
+        <v>4.834131175645999E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($J$2,I67)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11">
+      <c r="I68" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I69">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($J$2,I68)</f>
+        <v>4.8356514612896417E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($J$2,I68)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11">
+      <c r="I69" s="5">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I70">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($J$2,I69)</f>
+        <v>4.8371164638189704E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($J$2,I69)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11">
+      <c r="I70" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($J$2,I70)</f>
+        <v>4.8385291448293948E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($J$2,I70)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11">
+      <c r="I71" s="5">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I72">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($J$2,I71)</f>
+        <v>4.839892258085067E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($J$2,I71)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11">
+      <c r="I72" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I73">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($J$2,I72)</f>
+        <v>4.8412083674353713E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($J$2,I72)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11">
+      <c r="I73" s="5">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I74">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($J$2,I73)</f>
+        <v>4.8424798629093942E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($J$2,I73)</f>
+        <v>4.9162266004027157E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11">
+      <c r="I74" s="5">
         <v>30</v>
+      </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($J$2,I74)</f>
+        <v>4.8437089752009485E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($J$2,I74)</f>
+        <v>4.9162266004027157E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +5512,7 @@
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27228\source\repos\xll_ml1\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47BFC97-23F1-4A1C-BE88-5F9ED7B2F361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE575B-EF2D-4508-9852-DD57FC0831C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -148,22 +148,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
-  </si>
-  <si>
-    <t>use \fi.ucurve.bootstrap</t>
   </si>
   <si>
     <t>t</t>
@@ -179,6 +167,26 @@
   </si>
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\instrment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2313,21 +2321,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
+    <row r="3" spans="2:22">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="C4">
+        <f ca="1">RAND()</f>
+        <v>0.61540961863510824</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E4" ca="1" si="0">RAND()</f>
+        <v>5.2350253719193773E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47171444995438705</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">_xll.\FI.INSTRUMENT(C3:E3,C4:E4)</f>
+        <v>2543314103808</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6:E7" ca="1">_xll.FI.INSTRUMENT(C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="C7">
+        <f ca="1"/>
+        <v>0.61540961863510824</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>5.2350253719193773E-2</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>0.47171444995438705</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(1.2)</f>
+        <v>2543466978880</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:C10">_xll.FI.INSTRUMENT(C8)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">_xll.\FI.INSTRUMENT.BOND(10,0.2,2)</f>
+        <v>2543309113776</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="C12" cm="1">
+        <f t="array" ref="C12:V13">_xll.FI.INSTRUMENT(C11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3.5</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4.5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>6.5</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>7.5</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>8.5</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>9.5</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>0.1</v>
+      </c>
+      <c r="U13">
+        <v>0.1</v>
+      </c>
+      <c r="V13">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2337,17 +2567,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <f ca="1">RAND()</f>
+        <v>0.4416263045918124</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" ca="1" si="0">RAND()</f>
+        <v>6.5360880545606848E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83454267384664427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xll.\FI.CURVE.PWFLAT(B4:D4,B5:D5)</f>
+        <v>2543314107984</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" cm="1">
+        <f t="array" aca="1" ref="B7:D8" ca="1">_xll.FI.CURVE.PWFLAT(B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <f ca="1"/>
+        <v>0.4416263045918124</v>
+      </c>
+      <c r="C8">
+        <f ca="1"/>
+        <v>6.5360880545606848E-2</v>
+      </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>0.83454267384664427</v>
       </c>
     </row>
   </sheetData>
@@ -2360,9 +2652,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="C2" s="7" t="s">
@@ -2378,10 +2677,11 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H2" t="e" cm="1">
+        <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3:F16,E3:E16)</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -2399,13 +2699,18 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
+      <c r="F3" s="6" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3,E3)</f>
+        <v>2543466956272</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3,E3)</f>
+        <v>2543469572752</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2418,11 +2723,16 @@
         <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="6" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4,E4)</f>
+        <v>2543470075552</v>
+      </c>
+      <c r="G4" t="e" cm="1">
+        <f t="array" ref="G4">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F4,E4)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2440,17 +2750,22 @@
         <f t="shared" si="0"/>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" s="6" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5,E5)</f>
+        <v>2543470068208</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F5,E5)</f>
+        <v>2543314101648</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -2468,8 +2783,13 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" s="6" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6,E6)</f>
+        <v>2543470069792</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F6,E6)</f>
+        <v>2543314100208</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2478,6 +2798,14 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($H$2, I6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($H$2, I6)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="2" t="s">
@@ -2494,14 +2822,27 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" s="6" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7,E7)</f>
+        <v>2543470070080</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F7,E7)</f>
+        <v>2543314098336</v>
       </c>
       <c r="H7">
         <v>0.5</v>
       </c>
       <c r="I7">
         <v>0.1</v>
+      </c>
+      <c r="J7" t="e" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT(I7,H2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($H$2, I7)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -2519,11 +2860,24 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8" s="6" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8,E8)</f>
+        <v>2543470069936</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F8,E8)</f>
+        <v>2543314094736</v>
       </c>
       <c r="I8">
         <v>0.2</v>
+      </c>
+      <c r="J8" t="e" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT(I8,H3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($H$2, I8)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -2540,14 +2894,27 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" s="6" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9,E9)</f>
+        <v>2543470069504</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F9,E9)</f>
+        <v>2543314098768</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" t="e" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT(I9,H4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" t="e" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($H$2, I9)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:12">
@@ -2563,11 +2930,24 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="6" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,2)</f>
+        <v>2543406887072</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F10,E10)</f>
+        <v>2542692008960</v>
       </c>
       <c r="I10">
         <v>0.4</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT(I10,H5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($H$2, I10)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -2583,11 +2963,24 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" s="6" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,2)</f>
+        <v>2543406888512</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F11,E11)</f>
+        <v>2542691977568</v>
       </c>
       <c r="I11">
         <v>0.5</v>
+      </c>
+      <c r="J11" t="e" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT(I11,H6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($H$2, I11)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -2603,11 +2996,24 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" s="6" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,2)</f>
+        <v>2543406887712</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F12,E12)</f>
+        <v>2542691975984</v>
       </c>
       <c r="I12">
         <v>0.6</v>
+      </c>
+      <c r="J12" t="e" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT(I12,H7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($H$2, I12)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -2623,11 +3029,24 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" s="6" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,2)</f>
+        <v>2543406887392</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F13,E13)</f>
+        <v>2542691972528</v>
       </c>
       <c r="I13">
         <v>0.7</v>
+      </c>
+      <c r="J13" t="e" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT(I13,H8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($H$2, I13)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -2643,11 +3062,24 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="6" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,2)</f>
+        <v>2543406894592</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F14,E14)</f>
+        <v>2542691973968</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
+      </c>
+      <c r="J14" t="e" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT(I14,H9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" t="e" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($H$2, I14)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -2663,11 +3095,24 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" s="6" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,2)</f>
+        <v>2543406894912</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F15,E15)</f>
+        <v>2542691973680</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
+      </c>
+      <c r="J15" t="e" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT(I15,H10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" t="e" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($H$2, I15)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -2683,301 +3128,778 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" s="6" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,2)</f>
+        <v>2543406890272</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F16,E16)</f>
+        <v>2542691975120</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9">
+      <c r="J16" t="e" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT(I16,H11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K16" t="e" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($H$2, I16)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9">
+      <c r="J17" t="e" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT(I17,H12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K17" t="e" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($H$2, I17)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9">
+      <c r="J18" t="e" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT(I18,H13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" t="e" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($H$2, I18)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9">
+      <c r="J19" t="e" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT(I19,H14)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" t="e" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($H$2, I19)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9">
+      <c r="J20" t="e" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT(I20,H15)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K20" t="e" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($H$2, I20)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9">
+      <c r="J21" t="e" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT(I21,H16)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K21" t="e" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($H$2, I21)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9">
+      <c r="J22" t="e" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT(I22,H17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K22" t="e" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($H$2, I22)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9">
+      <c r="J23" t="e" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT(I23,H18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K23" t="e" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($H$2, I23)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9">
+      <c r="J24" t="e" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT(I24,H19)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K24" t="e" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($H$2, I24)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9">
+      <c r="J25" t="e" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT(I25,H20)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K25" t="e" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($H$2, I25)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9">
+      <c r="J26" t="e" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT(I26,H21)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K26" t="e" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($H$2, I26)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9">
+      <c r="J27" t="e" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT(I27,H22)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K27" t="e" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($H$2, I27)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9">
+      <c r="J28" t="e" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT(I28,H23)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K28" t="e" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($H$2, I28)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9">
+      <c r="J29" t="e" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT(I29,H24)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K29" t="e" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($H$2, I29)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9">
+      <c r="J30" t="e" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT(I30,H25)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K30" t="e" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($H$2, I30)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9">
+      <c r="J31" t="e" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT(I31,H26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K31" t="e" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($H$2, I31)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9">
+      <c r="J32" t="e" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT(I32,H27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K32" t="e" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($H$2, I32)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9">
+      <c r="J33" t="e" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT(I33,H28)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K33" t="e" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($H$2, I33)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9">
+      <c r="J34" t="e" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT(I34,H29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" t="e" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($H$2, I34)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9">
+      <c r="J35" t="e" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT(I35,H30)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" t="e" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($H$2, I35)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9">
+      <c r="J36" t="e" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT(I36,H31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" t="e" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($H$2, I36)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9">
+      <c r="J37" t="e" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT(I37,H32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" t="e" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($H$2, I37)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9">
+      <c r="J38" t="e" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT(I38,H33)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" t="e" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($H$2, I38)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9">
+      <c r="J39" t="e" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT(I39,H34)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" t="e" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($H$2, I39)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9">
+      <c r="J40" t="e" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT(I40,H35)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" t="e" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($H$2, I40)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9">
+      <c r="J41" t="e" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT(I41,H36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" t="e" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($H$2, I41)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9">
+      <c r="J42" t="e" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT(I42,H37)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="e" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($H$2, I42)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9">
+      <c r="J43" t="e" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT(I43,H38)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="e" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($H$2, I43)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9">
+      <c r="J44" t="e" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT(I44,H39)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="e" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($H$2, I44)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9">
+      <c r="J45" t="e" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT(I45,H40)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="e" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($H$2, I45)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9">
+      <c r="J46" t="e" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT(I46,H41)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="e" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($H$2, I46)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9">
+      <c r="J47" t="e" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT(I47,H42)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="e" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($H$2, I47)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9">
+      <c r="J48" t="e" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT(I48,H43)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="e" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($H$2, I48)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9">
+      <c r="J49" t="e" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT(I49,H44)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" t="e" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($H$2, I49)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9">
+      <c r="J50" t="e" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT(I50,H45)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" t="e" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($H$2, I50)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9">
+      <c r="J51" t="e" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT(I51,H46)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" t="e" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($H$2, I51)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9">
+      <c r="J52" t="e" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT(I52,H47)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" t="e" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($H$2, I52)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9">
+      <c r="J53" t="e" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT(I53,H48)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" t="e" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($H$2, I53)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9">
+      <c r="J54" t="e" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT(I54,H49)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K54" t="e" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($H$2, I54)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9">
+      <c r="J55" t="e" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT(I55,H50)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" t="e" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($H$2, I55)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9">
+      <c r="J56" t="e" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT(I56,H51)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" t="e" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($H$2, I56)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9">
+      <c r="J57" t="e" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT(I57,H52)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" t="e" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($H$2, I57)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9">
+      <c r="J58" t="e" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT(I58,H53)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K58" t="e" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($H$2, I58)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9">
+      <c r="J59" t="e" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT(I59,H54)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K59" t="e" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($H$2, I59)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9">
+      <c r="J60" t="e" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT(I60,H55)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K60" t="e" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($H$2, I60)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9">
+      <c r="J61" t="e" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT(I61,H56)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="e" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($H$2, I61)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9">
+      <c r="J62" t="e" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT(I62,H57)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="e" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($H$2, I62)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9">
+      <c r="J63" t="e" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT(I63,H58)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="e" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($H$2, I63)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9">
+      <c r="J64" t="e" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT(I64,H59)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="e" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($H$2, I64)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9">
+      <c r="J65" t="e" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT(I65,H60)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="e" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($H$2, I65)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9">
+      <c r="J66" t="e" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT(I66,H61)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="e" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($H$2, I66)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9">
+      <c r="J67" t="e" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT(I67,H62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="e" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($H$2, I67)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9">
+      <c r="J68" t="e" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT(I68,H63)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="e" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($H$2, I68)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9">
+      <c r="J69" t="e" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT(I69,H64)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="e" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($H$2, I69)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9">
+      <c r="J70" t="e" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT(I70,H65)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="e" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($H$2, I70)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9">
+      <c r="J71" t="e" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT(I71,H66)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="e" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($H$2, I71)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9">
+      <c r="J72" t="e" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT(I72,H67)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" t="e" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($H$2, I72)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9">
+      <c r="J73" t="e" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT(I73,H68)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K73" t="e" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($H$2, I73)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11">
       <c r="I74">
         <v>30</v>
+      </c>
+      <c r="J74" t="e" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT(I74,H69)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K74" t="e" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($H$2, I74)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
